--- a/feature_extraction/feature/p3-fro_degreedata.xlsx
+++ b/feature_extraction/feature/p3-fro_degreedata.xlsx
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>358.1131106228868</v>
+        <v>479.0876746483883</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>343.7571817431601</v>
+        <v>467.61629569552</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>346.5616828213991</v>
+        <v>469.5029286383632</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3165,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>349.6927222576987</v>
+        <v>471.6407531161827</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>351.5181360897329</v>
+        <v>472.784306000104</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>334.8925200717388</v>
+        <v>458.8779794237244</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>341.1231449198368</v>
+        <v>463.6000431406365</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>349.0057306119772</v>
+        <v>469.6008943773425</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>342.0774766043506</v>
+        <v>464.0700378175691</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3231,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>336.5070578754627</v>
+        <v>459.3353894487121</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>333.8038346094904</v>
+        <v>457.0350095999211</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>107.4243920159663</v>
+        <v>201.2461179749811</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>71.449282711585</v>
+        <v>185.5397531527947</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>75.07329751649384</v>
+        <v>185.4400172562546</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>126.6491215919005</v>
+        <v>208.0192298803166</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>81.54140052758476</v>
+        <v>184.4586674569672</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3308,7 +3308,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>67.26812023536856</v>
+        <v>179.0111728356641</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -3319,7 +3319,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>106.1037228376083</v>
+        <v>194.6535383701</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -3330,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>56.08029957123981</v>
+        <v>173.9683879329805</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3341,7 +3341,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>85.47514258543241</v>
+        <v>183.3084831643097</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3352,7 +3352,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>59.41380311005179</v>
+        <v>173.4416328336423</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3363,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>46.52956049652737</v>
+        <v>169.9558766268469</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>70.45565981523414</v>
+        <v>176.4652940382329</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>96.25487000666512</v>
+        <v>186.9358178627092</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>68.5054742338158</v>
+        <v>174.2555594522023</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>38.8329756778952</v>
+        <v>166.0481857775025</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3418,7 +3418,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>42.05948168962618</v>
+        <v>166.736318779083</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>117.0469991071963</v>
+        <v>194.6997688750554</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -3440,7 +3440,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>47.38143096192854</v>
+        <v>163.7711818361216</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3451,7 +3451,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>50.44799302251776</v>
+        <v>163.783393541592</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3462,7 +3462,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>103.092191750879</v>
+        <v>189.7472002428494</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>41.03656905736639</v>
+        <v>159.8123900077838</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -3484,7 +3484,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>34.66987164671943</v>
+        <v>158.6757700469735</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3495,7 +3495,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>125.1718818265508</v>
+        <v>195.6016359849784</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>86.64871608973787</v>
+        <v>174.4133022449836</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>28.63564212655271</v>
+        <v>154.2076522096099</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -3528,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>70.57619995437555</v>
+        <v>165.0848266801041</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>33.97057550292606</v>
+        <v>155.3640885146886</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3550,7 +3550,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>92.44457799135652</v>
+        <v>179.0474797365213</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3561,7 +3561,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>100.1698557451292</v>
+        <v>183.3303030052588</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>138.1014120130565</v>
+        <v>201.3156725145859</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>125.131930377502</v>
+        <v>192.2550389456672</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>76.92203845452875</v>
+        <v>164.6238135872207</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>20.8806130178211</v>
+        <v>148.0135128966271</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3616,7 +3616,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>46.51881339845203</v>
+        <v>154.983870128475</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3627,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>94.14881836751856</v>
+        <v>176.4086165695996</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>83.19855767980596</v>
+        <v>165.9457742758158</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>48.84669896727925</v>
+        <v>152.6106156202772</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -3660,7 +3660,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>36.35931792539569</v>
+        <v>149.4590244849738</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3671,7 +3671,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>19.69771560359221</v>
+        <v>146.4923206178399</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>147.8681845428556</v>
+        <v>202.9408780901472</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>53.45091205957107</v>
+        <v>151.4760707174569</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -3704,7 +3704,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>135.8307770720612</v>
+        <v>193.9329781135741</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3715,7 +3715,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>129.8691649314802</v>
+        <v>189.9315666233499</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>78.44743462982075</v>
+        <v>160.5552864280712</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>118.8276062201036</v>
+        <v>182.0988742414406</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3748,7 +3748,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>30.4138126514911</v>
+        <v>145.3444185374863</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3759,7 +3759,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>103.9471019317037</v>
+        <v>177.8004499431877</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3770,7 +3770,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>114.7388338793802</v>
+        <v>178.8323237001633</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>64.32728814430156</v>
+        <v>152.846328055338</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3792,7 +3792,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>31.78049716414141</v>
+        <v>143.1991620087213</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -3803,7 +3803,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>13.0384048104053</v>
+        <v>141.088624630053</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -3814,7 +3814,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>86.83317338436964</v>
+        <v>162.2467256988566</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -3825,7 +3825,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>94.76286192385707</v>
+        <v>170.8917786202719</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3836,7 +3836,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>40.52159917870962</v>
+        <v>145.4991408909345</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -3847,7 +3847,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>17.20465053408525</v>
+        <v>138.3618444514238</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -3858,7 +3858,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>48.05205510693585</v>
+        <v>147.1223980228707</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3869,7 +3869,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>89.56003573022959</v>
+        <v>166.412138980304</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3880,7 +3880,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>101.49384217774</v>
+        <v>173.4041521994211</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>145.2205219657332</v>
+        <v>195.9004849406963</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -3902,7 +3902,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>82.38931969618392</v>
+        <v>156.7801007781281</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>66.48308055437865</v>
+        <v>149.465715132267</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3924,7 +3924,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>57.55866572463264</v>
+        <v>145.9623239058628</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -3935,7 +3935,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>33.734255586866</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3946,7 +3946,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>20.24845673131659</v>
+        <v>135.8307770720612</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -3957,7 +3957,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>9.219544457292887</v>
+        <v>135.0148140020198</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -3968,7 +3968,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>11.40175425099138</v>
+        <v>135.6244815658294</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -3979,7 +3979,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>18.38477631085023</v>
+        <v>136.6235704408284</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -3990,7 +3990,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>63.28506932918696</v>
+        <v>149.8165544924859</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -4001,7 +4001,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>24.51530134426253</v>
+        <v>134.4953530795767</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>7.071067811865476</v>
+        <v>133.0037593453659</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>41.19465984809196</v>
+        <v>137.0875632579411</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -4034,7 +4034,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>93.08598175880189</v>
+        <v>163.8078142214223</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -4045,7 +4045,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>127.0354281293215</v>
+        <v>179.6941846582688</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -4056,7 +4056,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>54.08326913195984</v>
+        <v>143.265487818944</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -4067,7 +4067,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>78.02563681252464</v>
+        <v>149.5860956105212</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -4078,7 +4078,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>69.02897942168927</v>
+        <v>145.3444185374863</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4089,7 +4089,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>35.05709628591621</v>
+        <v>133.6450522840258</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -4100,7 +4100,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>15.13274595042156</v>
+        <v>131.3811249761548</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>83.02409288875127</v>
+        <v>156.4257012130679</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>32.01562118716424</v>
+        <v>133.9290857132983</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -4133,7 +4133,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>150</v>
+        <v>194.164878389476</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>130.2305647687976</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>106.0047168761843</v>
+        <v>162.8895331198417</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -4177,7 +4177,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>23.02172886644268</v>
+        <v>129.8383610494218</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -4188,7 +4188,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>138.0144919926889</v>
+        <v>183.9347710466947</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -4199,7 +4199,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>46.04345773288535</v>
+        <v>135.5581056226443</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -4210,7 +4210,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>113.0707742964556</v>
+        <v>165.0969412193939</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -4221,7 +4221,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>40.19950248448356</v>
+        <v>129.1200991325518</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -4232,7 +4232,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>7.211102550927978</v>
+        <v>124.4025723206719</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -4243,7 +4243,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>131.0953851209111</v>
+        <v>176.7993212656655</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -4254,7 +4254,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>35.35533905932738</v>
+        <v>126.8463637634126</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>70.178344238091</v>
+        <v>143.5444182126216</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -4276,7 +4276,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>84.1486779456457</v>
+        <v>151.2382226819662</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -4287,7 +4287,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>105.1712888577486</v>
+        <v>158.3824485225557</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>56.32051136131489</v>
+        <v>132.6197572008032</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -4309,7 +4309,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>140.1748907615055</v>
+        <v>182.0357107822528</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4320,7 +4320,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>97.25224933131366</v>
+        <v>157.6134512026179</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>103.3102124671128</v>
+        <v>155.5667059495701</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>61.5223536610881</v>
+        <v>132.8495389529072</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>24.35159132377184</v>
+        <v>123</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>106.3813893498294</v>
+        <v>156.7322557739791</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>89.56003573022959</v>
+        <v>145.4269576110289</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -4386,7 +4386,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>13.45362404707371</v>
+        <v>118.1058846967415</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -4397,7 +4397,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>41.23105625617661</v>
+        <v>125.9364919314493</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -4408,7 +4408,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>89.56003573022959</v>
+        <v>150.2431362824938</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -4419,7 +4419,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>126.5701386583739</v>
+        <v>168.3448840921517</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>49.47726750741192</v>
+        <v>127.1219886565656</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -4441,7 +4441,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>74.14849964766651</v>
+        <v>138.3979768638256</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -4452,7 +4452,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>80.06247560499239</v>
+        <v>141.8238343861849</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>94.04786015641186</v>
+        <v>144.6271067262289</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -4474,7 +4474,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>85.15867542417507</v>
+        <v>139.2695228684295</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>14.14213562373095</v>
+        <v>114.1577855426427</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -4496,7 +4496,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>30.886890422961</v>
+        <v>115.316954521007</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>104.2353107157071</v>
+        <v>149.4824404403407</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>60.16643582596529</v>
+        <v>128.0156240464421</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -4529,7 +4529,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>65.96969000988257</v>
+        <v>131.0267148332736</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -4540,7 +4540,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>79.62411694957753</v>
+        <v>138.8092215956851</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4551,7 +4551,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>121.4948558581803</v>
+        <v>159.1760032165653</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>43.38202392696773</v>
+        <v>114.4814395437094</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -4573,7 +4573,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>24.20743687382041</v>
+        <v>110.6435718873898</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -4584,7 +4584,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>55.36244214266564</v>
+        <v>122.5438696957135</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -4595,7 +4595,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>70.8801805866774</v>
+        <v>125.5388386118017</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -4606,7 +4606,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>55.71355310873648</v>
+        <v>118.1862936215533</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -4617,7 +4617,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>20.02498439450079</v>
+        <v>108.1156787889712</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>87.32124598286491</v>
+        <v>139.9464183178691</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -4639,7 +4639,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>22.13594362117865</v>
+        <v>107.5639344761989</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>42.5440947723653</v>
+        <v>114.5862120850497</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>62.03224967708329</v>
+        <v>118.9621788637044</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -4672,7 +4672,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>50.08991914547278</v>
+        <v>113.652980603238</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>31.11269837220809</v>
+        <v>109.142109197138</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -4694,7 +4694,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>36.40054944640259</v>
+        <v>111.0180165558726</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -4705,7 +4705,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>47.41307836451879</v>
+        <v>115.5508546052343</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>87.09190547921202</v>
+        <v>132.0037878244408</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -4727,7 +4727,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>40.22437072223753</v>
+        <v>108.9311709291698</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>73.68174807915459</v>
+        <v>128.4562182223967</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -4749,7 +4749,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>140.071410359145</v>
+        <v>169.6231116328197</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>120.415945787923</v>
+        <v>154.3113735276827</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>48.37354648979129</v>
+        <v>113.718951806636</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>103.0776406404415</v>
+        <v>140.8012784032872</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -4793,7 +4793,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>80.95677859203639</v>
+        <v>126.2457920090804</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -4804,7 +4804,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>36.7967389859482</v>
+        <v>105.5367234662892</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>26.57066051117285</v>
+        <v>103.1212878119741</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -4826,7 +4826,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>40.60788100849391</v>
+        <v>109.110036201992</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>82.86132994346639</v>
+        <v>132.2800060477773</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -4848,7 +4848,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>76.55063683601855</v>
+        <v>122.5887433657756</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -4859,7 +4859,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>58.13776741499453</v>
+        <v>112.7297653683356</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -4870,7 +4870,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>80.65358020571685</v>
+        <v>124.0362850137007</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>50.77400909914441</v>
+        <v>108.268185539428</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>41.86884283091664</v>
+        <v>104.8093507278811</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>29.1547594742265</v>
+        <v>102.1077861869505</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -4914,7 +4914,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>55.94640292279746</v>
+        <v>114.061386980871</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -4925,7 +4925,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>66.21178142898739</v>
+        <v>118.7265766372466</v>
       </c>
       <c r="C165">
         <v>3</v>
@@ -4936,7 +4936,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>38.28837943815329</v>
+        <v>103.1600697944704</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -4947,7 +4947,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>114.9826073804208</v>
+        <v>145.0965195998857</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>75.23961722390672</v>
+        <v>122.2006546627308</v>
       </c>
       <c r="C168">
         <v>5</v>
@@ -4969,7 +4969,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>109.4805918873295</v>
+        <v>140.0357097314824</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>49.04079934095692</v>
+        <v>105.7024124606435</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -4991,7 +4991,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>62.26556030423239</v>
+        <v>113.017697729161</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -5002,7 +5002,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>70.66116330771806</v>
+        <v>112.6809655620682</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>124.1933975700802</v>
+        <v>156.8183662713013</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -5024,7 +5024,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>43.93176527297759</v>
+        <v>98.2344135219425</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -5035,7 +5035,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>139.2156600386609</v>
+        <v>161.235852092517</v>
       </c>
       <c r="C175">
         <v>3</v>
@@ -5046,7 +5046,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>34.05877273185281</v>
+        <v>94.19129471453293</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5057,7 +5057,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>91.54780172128658</v>
+        <v>129.4488315899375</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -5068,7 +5068,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>99.95999199679839</v>
+        <v>135.7939615741437</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -5079,7 +5079,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>104.0624812312295</v>
+        <v>132.2308587282106</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -5090,7 +5090,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>57.8013840664737</v>
+        <v>102.0441081101697</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -5101,7 +5101,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>145.5231940276188</v>
+        <v>165.0242406436097</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -5112,7 +5112,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>91.3892772703669</v>
+        <v>121.9180052330254</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -5123,7 +5123,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>41.182520563948</v>
+        <v>93.38094023943002</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -5134,7 +5134,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>53.03772242470448</v>
+        <v>97.14422267947796</v>
       </c>
       <c r="C184">
         <v>3</v>
@@ -5145,7 +5145,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>37.01351104664349</v>
+        <v>91.13725912051558</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -5156,7 +5156,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>42.04759208325728</v>
+        <v>92.64987857520376</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -5167,7 +5167,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>47.43416490252569</v>
+        <v>91.92388155425118</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>51.73973328110612</v>
+        <v>96.77293009927931</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -5189,7 +5189,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>113.8859078200635</v>
+        <v>142.2743827960606</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -5200,7 +5200,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>132.1968229572859</v>
+        <v>150.4260615717901</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -5211,7 +5211,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>102.1567423129771</v>
+        <v>125.8729518204765</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>61.71709649683789</v>
+        <v>101.7103731189695</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -5233,7 +5233,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>98.48857801796105</v>
+        <v>128.763348822559</v>
       </c>
       <c r="C193">
         <v>4</v>
@@ -5244,7 +5244,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>136.0147050873544</v>
+        <v>160.312195418814</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>41.43669871020132</v>
+        <v>87.57282683572571</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>82.85529554590944</v>
+        <v>115.5205609404664</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>70</v>
+        <v>100.4987562112089</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -5288,7 +5288,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>43.68065933568311</v>
+        <v>87.47571091451616</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -5299,7 +5299,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>70.80254232723568</v>
+        <v>105.4371850914088</v>
       </c>
       <c r="C199">
         <v>4</v>
@@ -5310,7 +5310,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>121.4907403878995</v>
+        <v>146.0136979875518</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>157.0031846810758</v>
+        <v>169.8057713977944</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>155.0806241927082</v>
+        <v>168.0773631397161</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5343,7 +5343,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>47.85394445602159</v>
+        <v>88.60022573334675</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>107.0186899564744</v>
+        <v>132.7742444904131</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -5365,7 +5365,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>123.7133784196358</v>
+        <v>147.0544116985274</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>65.06919393998976</v>
+        <v>93.47726996441435</v>
       </c>
       <c r="C206">
         <v>4</v>
@@ -5387,7 +5387,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>57.62811813689564</v>
+        <v>88.95504482602435</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -5398,7 +5398,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>47.75981574503821</v>
+        <v>83.86298349093002</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>57.62811813689564</v>
+        <v>92.13576938409967</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -5420,7 +5420,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>61.55485358604957</v>
+        <v>94.89467845985885</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -5431,7 +5431,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>86.6083136886985</v>
+        <v>113.8990781349875</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>134.7367804276175</v>
+        <v>155.0806241927082</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -5453,7 +5453,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>164.5600194457937</v>
+        <v>174.4706279005151</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -5464,7 +5464,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>122.0040982918197</v>
+        <v>136.4001466274872</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -5475,7 +5475,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>54.3783044972901</v>
+        <v>85.72630868059116</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -5486,7 +5486,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>79.63039620647382</v>
+        <v>107.1680922663084</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -5497,7 +5497,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>137.2953021774598</v>
+        <v>148.9496559244096</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>115.9525765129866</v>
+        <v>130.2497600765545</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -5519,7 +5519,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>78.60025445251433</v>
+        <v>100.2097799618381</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>48.27007354458868</v>
+        <v>81.30190649671138</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -5541,7 +5541,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>172.8004629623428</v>
+        <v>180.6765064971094</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -5552,7 +5552,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>159.0628806478746</v>
+        <v>166.412138980304</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -5563,7 +5563,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>57.30619512757761</v>
+        <v>84.30895563343196</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5574,7 +5574,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>67.26812023536856</v>
+        <v>92.11405973031478</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -5585,7 +5585,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>102.0832993197222</v>
+        <v>121.3795699448635</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -5596,7 +5596,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>133.7011593068661</v>
+        <v>149.8932953804139</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -5607,7 +5607,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>55.54277630799526</v>
+        <v>79.07591289387686</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>51.0098029794274</v>
+        <v>77.05841939723393</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -5629,7 +5629,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>77.23341245859851</v>
+        <v>98.85848471426213</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>136.8575902169843</v>
+        <v>151.9539403898431</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>114.4901742508937</v>
+        <v>124.01612798342</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -5662,7 +5662,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>150.6320019119443</v>
+        <v>156.18578680533</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -5673,7 +5673,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>145.0310311622999</v>
+        <v>150.9503229542753</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -5684,7 +5684,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>137.0839159055504</v>
+        <v>142.6884718538957</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -5695,7 +5695,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>86.83317338436964</v>
+        <v>97.83659846908007</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -5706,7 +5706,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>74.27651041883968</v>
+        <v>87.66413177577246</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -5717,7 +5717,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>55.08175741568164</v>
+        <v>73.00684899377592</v>
       </c>
       <c r="C237">
         <v>2</v>
@@ -5728,7 +5728,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>59.61543424315552</v>
+        <v>77.83315488916018</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -5739,7 +5739,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>99.56907150315303</v>
+        <v>113.5693620656557</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -5750,7 +5750,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>111.5078472574912</v>
+        <v>124.619420637395</v>
       </c>
       <c r="C240">
         <v>2</v>
@@ -5761,7 +5761,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>123.8789731956154</v>
+        <v>136.2130683891968</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -5772,7 +5772,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>64.00781202322104</v>
+        <v>76.89603370785778</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -5783,7 +5783,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>57.0701322935211</v>
+        <v>73.54590403278758</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>58.82176467941097</v>
+        <v>75.28612089887484</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>68.81860213634101</v>
+        <v>84.38009243891595</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -5816,7 +5816,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>96.60745312862771</v>
+        <v>102.5524256173397</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -5827,7 +5827,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>82.03657720797473</v>
+        <v>94.92101980067429</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>95.80187889597991</v>
+        <v>107.712580509428</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>151.1588568361113</v>
+        <v>160.5521722057973</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>140.5275773647294</v>
+        <v>142.3938200906205</v>
       </c>
       <c r="C250">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>102.9028668210949</v>
+        <v>107.0560600806886</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -5882,7 +5882,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>84.17244204607586</v>
+        <v>90.27181176868004</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -5893,7 +5893,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>74.65252842335616</v>
+        <v>82.15229759416349</v>
       </c>
       <c r="C253">
         <v>4</v>
@@ -5904,7 +5904,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>119.9541579104284</v>
+        <v>129.5414991421668</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>109.2931836849856</v>
+        <v>118.2243629714282</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>133.2704018152568</v>
+        <v>133.6001497005149</v>
       </c>
       <c r="C256">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>78.10249675906654</v>
+        <v>86.83317338436964</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>67.54257916307313</v>
+        <v>71.5122367151245</v>
       </c>
       <c r="C258">
         <v>3</v>
@@ -5959,7 +5959,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>61</v>
+        <v>67.11929677819934</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -5970,7 +5970,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>154.9451515859725</v>
+        <v>152.9705854077835</v>
       </c>
       <c r="C260">
         <v>2</v>
@@ -5981,7 +5981,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>65.45991139621256</v>
+        <v>68.15423684555495</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -5992,7 +5992,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>116.5032188396527</v>
+        <v>114.284732138637</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -6003,7 +6003,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>72.56031973468694</v>
+        <v>72.44998274671983</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -6014,7 +6014,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>64.49806198638839</v>
+        <v>65.11528238439882</v>
       </c>
       <c r="C264">
         <v>3</v>
@@ -6025,7 +6025,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>91.93475947648963</v>
+        <v>94.84724561103501</v>
       </c>
       <c r="C265">
         <v>4</v>
@@ -6036,7 +6036,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>96.33275663033837</v>
+        <v>99.35793878699377</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -6047,7 +6047,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>97.83659846908007</v>
+        <v>100.8959860450355</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>103.2327467424945</v>
+        <v>106.4001879697588</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -6069,7 +6069,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>71.69379331573968</v>
+        <v>69.77105417004964</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -6080,7 +6080,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>151.1687798455752</v>
+        <v>153.1143363633856</v>
       </c>
       <c r="C270">
         <v>4</v>
@@ -6091,7 +6091,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>153.4046935396698</v>
+        <v>147.2311108427835</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -6102,7 +6102,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>96.89685237405806</v>
+        <v>89.87213138676528</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>86.05230967266364</v>
+        <v>78.87331614684399</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -6124,7 +6124,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>80.15609770940699</v>
+        <v>72.94518489934754</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6135,7 +6135,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>68.8839603971781</v>
+        <v>62.16912416947821</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>108.0740486888504</v>
+        <v>106.5082156455548</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -6157,7 +6157,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>160.5801980320114</v>
+        <v>152.846328055338</v>
       </c>
       <c r="C277">
         <v>3</v>
@@ -6168,7 +6168,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>77.38862965578342</v>
+        <v>64.8459713474939</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>70.34912934784623</v>
+        <v>58.07753438292642</v>
       </c>
       <c r="C279">
         <v>3</v>
@@ -6190,7 +6190,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>173.219513912261</v>
+        <v>164.2102311063473</v>
       </c>
       <c r="C280">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>94.92101980067429</v>
+        <v>82.03657720797473</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -6212,7 +6212,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>74.63243262818116</v>
+        <v>63.07138812488591</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>91.67878707749138</v>
+        <v>84.21995013059554</v>
       </c>
       <c r="C283">
         <v>3</v>
@@ -6234,7 +6234,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>104.7377677822093</v>
+        <v>99.04544411531506</v>
       </c>
       <c r="C284">
         <v>4</v>
@@ -6245,7 +6245,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>128.9689885204967</v>
+        <v>117.2390719854094</v>
       </c>
       <c r="C285">
         <v>5</v>
@@ -6256,7 +6256,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>75</v>
+        <v>58.52349955359813</v>
       </c>
       <c r="C286">
         <v>3</v>
@@ -6267,7 +6267,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>73.16419889536138</v>
+        <v>58.52349955359813</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -6278,7 +6278,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>135.3698637068088</v>
+        <v>122.9837387624884</v>
       </c>
       <c r="C288">
         <v>3</v>
@@ -6289,7 +6289,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>119.016805536025</v>
+        <v>105.4751155486449</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -6300,7 +6300,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>111.198021565134</v>
+        <v>95.69221493935649</v>
       </c>
       <c r="C290">
         <v>4</v>
@@ -6311,7 +6311,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>83.64807230295268</v>
+        <v>64.35060217278468</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -6322,7 +6322,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>79.12016177940993</v>
+        <v>59.09314681077663</v>
       </c>
       <c r="C292">
         <v>3</v>
@@ -6333,7 +6333,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>136.7515996250135</v>
+        <v>130.6789960169575</v>
       </c>
       <c r="C293">
         <v>5</v>
@@ -6344,7 +6344,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>161.9012044427095</v>
+        <v>157.5436447464638</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -6355,7 +6355,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>76.2954782408499</v>
+        <v>55.97320787662612</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>111.1260545506768</v>
+        <v>101.0198000393982</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -6377,7 +6377,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>150.9503229542753</v>
+        <v>145.0310311622999</v>
       </c>
       <c r="C297">
         <v>3</v>
@@ -6388,7 +6388,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>173.5280957078709</v>
+        <v>160.6486850241856</v>
       </c>
       <c r="C298">
         <v>2</v>
@@ -6399,7 +6399,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>158.4203269785794</v>
+        <v>144.668586776812</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>96.21330469326995</v>
+        <v>75.69015788066504</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -6421,7 +6421,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>91.52595260361949</v>
+        <v>75.69015788066504</v>
       </c>
       <c r="C301">
         <v>2</v>
@@ -6432,7 +6432,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>106.7754653466797</v>
+        <v>94.57801012920498</v>
       </c>
       <c r="C302">
         <v>3</v>
@@ -6443,7 +6443,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>106.7941945987702</v>
+        <v>86.6083136886985</v>
       </c>
       <c r="C303">
         <v>2</v>
@@ -6454,7 +6454,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>119.2057045614848</v>
+        <v>107.8239305534722</v>
       </c>
       <c r="C304">
         <v>3</v>
@@ -6465,7 +6465,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>140.6164997430956</v>
+        <v>123.5677951571525</v>
       </c>
       <c r="C305">
         <v>3</v>
@@ -6476,7 +6476,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>78.16009211867653</v>
+        <v>50.00999900019995</v>
       </c>
       <c r="C306">
         <v>3</v>
@@ -6487,7 +6487,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>95.13148795220224</v>
+        <v>69.29646455628166</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -6498,7 +6498,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>87.23531395025755</v>
+        <v>59.07622195096772</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -6509,7 +6509,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>79.05694150420949</v>
+        <v>49.49747468305833</v>
       </c>
       <c r="C309">
         <v>5</v>
@@ -6520,7 +6520,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>102.303470126873</v>
+        <v>84.62860036654276</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -6531,7 +6531,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>137.0583817210753</v>
+        <v>125.9245806028354</v>
       </c>
       <c r="C311">
         <v>2</v>
@@ -6542,7 +6542,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>85.09406559801923</v>
+        <v>54.12023651093924</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>168.7157372624143</v>
+        <v>151.4760707174569</v>
       </c>
       <c r="C313">
         <v>4</v>
@@ -6564,7 +6564,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>105.7591603597532</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="C314">
         <v>3</v>
@@ -6575,7 +6575,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>157.4357011608231</v>
+        <v>146.7310464761974</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>98.73702446397704</v>
+        <v>68.6804193347711</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>150.3329637837291</v>
+        <v>137.8985134075056</v>
       </c>
       <c r="C317">
         <v>4</v>
@@ -6608,7 +6608,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>150.8807476121457</v>
+        <v>130.034610777285</v>
       </c>
       <c r="C318">
         <v>6</v>
@@ -6619,7 +6619,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>123.1097071720991</v>
+        <v>96.60227740586657</v>
       </c>
       <c r="C319">
         <v>4</v>
@@ -6630,7 +6630,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>84.71717653463199</v>
+        <v>46.48655719667784</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -6641,7 +6641,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>142.2005625867915</v>
+        <v>118.1058846967415</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -6652,7 +6652,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>115.3646392964499</v>
+        <v>85.58621384311844</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -6663,7 +6663,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>90.47651629014017</v>
+        <v>50.77400909914441</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>131.2440474840669</v>
+        <v>112.538882169675</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>88.52683209061533</v>
+        <v>45.31004303683677</v>
       </c>
       <c r="C325">
         <v>3</v>
@@ -6696,7 +6696,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>86.57944328765345</v>
+        <v>42.42640687119285</v>
       </c>
       <c r="C326">
         <v>4</v>
@@ -6707,7 +6707,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>137.9057649266339</v>
+        <v>110.8602724153247</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>113.5693620656557</v>
+        <v>80.26207074328447</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -6729,7 +6729,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>92.02716990106781</v>
+        <v>53.2634959423431</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -6740,7 +6740,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>104.8475083156486</v>
+        <v>66.40030120413611</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>99.76472322419383</v>
+        <v>58.72818744010409</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -6762,7 +6762,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>174.4161689752415</v>
+        <v>151.1191582824626</v>
       </c>
       <c r="C332">
         <v>4</v>
@@ -6773,7 +6773,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>134.6179779969971</v>
+        <v>104.546640309481</v>
       </c>
       <c r="C333">
         <v>3</v>
@@ -6784,7 +6784,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>123.7618681177688</v>
+        <v>98.08669634563088</v>
       </c>
       <c r="C334">
         <v>3</v>
@@ -6795,7 +6795,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>184.4478246008881</v>
+        <v>161.533278305122</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -6806,7 +6806,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>141.3541651314173</v>
+        <v>111.6646765991824</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -6817,7 +6817,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>119.7539143410352</v>
+        <v>91.28526715741155</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>91.44397191723465</v>
+        <v>39.21734310225516</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>166.6883319251831</v>
+        <v>139.7175722663402</v>
       </c>
       <c r="C339">
         <v>2</v>
@@ -6850,7 +6850,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>94.14881836751856</v>
+        <v>39.39543120718442</v>
       </c>
       <c r="C340">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>153.4046935396698</v>
+        <v>123.0812739615576</v>
       </c>
       <c r="C341">
         <v>2</v>
@@ -6872,7 +6872,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>151.0297983842923</v>
+        <v>127.8827588066507</v>
       </c>
       <c r="C342">
         <v>3</v>
@@ -6883,7 +6883,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>135.7939615741437</v>
+        <v>99.95999199679839</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -6894,7 +6894,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>166.1475248085267</v>
+        <v>145.041373407728</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -6905,7 +6905,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>193</v>
+        <v>167.2871782295344</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -6916,7 +6916,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>146.8638825579659</v>
+        <v>112.9291813483123</v>
       </c>
       <c r="C346">
         <v>4</v>
@@ -6927,7 +6927,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>113.4416149391395</v>
+        <v>66.73080248281148</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -6938,7 +6938,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>96.17692030835673</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -6949,7 +6949,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>117.4137981669957</v>
+        <v>80.11242100947892</v>
       </c>
       <c r="C349">
         <v>3</v>
@@ -6960,7 +6960,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>126.9054766351713</v>
+        <v>85.23496934944014</v>
       </c>
       <c r="C350">
         <v>4</v>
@@ -6971,7 +6971,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>97.25224933131366</v>
+        <v>31.14482300479487</v>
       </c>
       <c r="C351">
         <v>5</v>
@@ -6982,7 +6982,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>141.4849815351439</v>
+        <v>111.400179533069</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -6993,7 +6993,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>189.3356807366219</v>
+        <v>160.822883943797</v>
       </c>
       <c r="C353">
         <v>3</v>
@@ -7004,7 +7004,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>112.8716084761797</v>
+        <v>60.03332407921454</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>109.1237829256299</v>
+        <v>60.03332407921454</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -7026,7 +7026,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>114.3896848496402</v>
+        <v>69.77822009767804</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>182.2361105818493</v>
+        <v>151.7959156235766</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -7048,7 +7048,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>103.7400597647794</v>
+        <v>39.6232255123179</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -7059,7 +7059,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>150.2331521336087</v>
+        <v>120.5404496424333</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -7070,7 +7070,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>135.2072483264118</v>
+        <v>91.39474820797966</v>
       </c>
       <c r="C360">
         <v>5</v>
@@ -7081,7 +7081,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>113.1768527570899</v>
+        <v>63.50590523722971</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>129.3213052826177</v>
+        <v>90.44335243676011</v>
       </c>
       <c r="C362">
         <v>4</v>
@@ -7103,7 +7103,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>124.619420637395</v>
+        <v>74.09453421137081</v>
       </c>
       <c r="C363">
         <v>5</v>
@@ -7114,7 +7114,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>104.546640309481</v>
+        <v>35.4682957019364</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>106.3202708800161</v>
+        <v>42.80186911806539</v>
       </c>
       <c r="C365">
         <v>6</v>
@@ -7136,7 +7136,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>136.6930868771351</v>
+        <v>98.49365461794989</v>
       </c>
       <c r="C366">
         <v>3</v>
@@ -7147,7 +7147,7 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>105.0761628534274</v>
+        <v>30.61045573002793</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -7158,7 +7158,7 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>151.3472827638475</v>
+        <v>107.4895343742822</v>
       </c>
       <c r="C368">
         <v>2</v>
@@ -7169,7 +7169,7 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>129.8499133615421</v>
+        <v>82.00609733428362</v>
       </c>
       <c r="C369">
         <v>3</v>
@@ -7180,7 +7180,7 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>107.3778375643689</v>
+        <v>21.5870331449229</v>
       </c>
       <c r="C370">
         <v>3</v>
@@ -7191,7 +7191,7 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>107.7868266533531</v>
+        <v>27.01851217221259</v>
       </c>
       <c r="C371">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>188.9153249474483</v>
+        <v>152.3187447427269</v>
       </c>
       <c r="C372">
         <v>5</v>
@@ -7213,7 +7213,7 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>115.8792474949678</v>
+        <v>42.94182110716778</v>
       </c>
       <c r="C373">
         <v>3</v>
@@ -7224,7 +7224,7 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>110.4219181141136</v>
+        <v>33.60059523282288</v>
       </c>
       <c r="C374">
         <v>2</v>
@@ -7235,7 +7235,7 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>124.5311206084648</v>
+        <v>68.96375859826666</v>
       </c>
       <c r="C375">
         <v>2</v>
@@ -7246,7 +7246,7 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>127.6244490683505</v>
+        <v>74.72616676907762</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -7257,7 +7257,7 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>164.3471934655411</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="C377">
         <v>2</v>
@@ -7268,7 +7268,7 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>137.800580550301</v>
+        <v>81.02468759581859</v>
       </c>
       <c r="C378">
         <v>3</v>
@@ -7279,7 +7279,7 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>114.843371598016</v>
+        <v>34.13209633175202</v>
       </c>
       <c r="C379">
         <v>2</v>
@@ -7290,7 +7290,7 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>114.0175425099138</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="C380">
         <v>2</v>
@@ -7301,7 +7301,7 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>122.1024160285127</v>
+        <v>59.77457653551382</v>
       </c>
       <c r="C381">
         <v>2</v>
@@ -7312,7 +7312,7 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>174.7741399635541</v>
+        <v>132.0984481362291</v>
       </c>
       <c r="C382">
         <v>5</v>
@@ -7323,7 +7323,7 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>113.5649593844862</v>
+        <v>26.24880949681338</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>112.7874106449829</v>
+        <v>23.3452350598575</v>
       </c>
       <c r="C384">
         <v>8</v>
@@ -7345,7 +7345,7 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>124.3261838873855</v>
+        <v>62.36184731067546</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>141.6509795236164</v>
+        <v>93.55746896961247</v>
       </c>
       <c r="C386">
         <v>5</v>
@@ -7367,7 +7367,7 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>169.4254998517047</v>
+        <v>133.0901949806972</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -7378,7 +7378,7 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>203.5779948815687</v>
+        <v>166.7693017314637</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>116.7604385055144</v>
+        <v>40.31128874149275</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -7400,7 +7400,7 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>165.5596569216063</v>
+        <v>117.957619508025</v>
       </c>
       <c r="C390">
         <v>2</v>
@@ -7411,7 +7411,7 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>133.9888055025494</v>
+        <v>69.63476143421474</v>
       </c>
       <c r="C391">
         <v>4</v>
@@ -7422,7 +7422,7 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>129.3754227046235</v>
+        <v>60.87692502089769</v>
       </c>
       <c r="C392">
         <v>4</v>
@@ -7433,7 +7433,7 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>117.7200067957864</v>
+        <v>32.64965543462902</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -7444,7 +7444,7 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>134.5288073239334</v>
+        <v>78.44743462982075</v>
       </c>
       <c r="C394">
         <v>3</v>
@@ -7455,7 +7455,7 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>159.1131672741134</v>
+        <v>107.9120011861517</v>
       </c>
       <c r="C395">
         <v>3</v>
@@ -7466,7 +7466,7 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>152.3056138164316</v>
+        <v>98.00510190801293</v>
       </c>
       <c r="C396">
         <v>4</v>
@@ -7477,7 +7477,7 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>116.4989270336856</v>
+        <v>31.30495168499706</v>
       </c>
       <c r="C397">
         <v>3</v>
@@ -7488,7 +7488,7 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>120.8139064843116</v>
+        <v>46.17358552246078</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -7499,7 +7499,7 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>164.0731544159495</v>
+        <v>122.80065146407</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -7510,7 +7510,7 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>144.8067677976413</v>
+        <v>85</v>
       </c>
       <c r="C400">
         <v>3</v>
@@ -7521,7 +7521,7 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>141.8238343861849</v>
+        <v>87.96590248499699</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -7532,7 +7532,7 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>116.2110149684616</v>
+        <v>16.27882059609971</v>
       </c>
       <c r="C402">
         <v>3</v>
@@ -7543,7 +7543,7 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>174.2297333981775</v>
+        <v>134.5362404707371</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>191.0235587565052</v>
+        <v>147.4109900923266</v>
       </c>
       <c r="C404">
         <v>3</v>
@@ -7565,7 +7565,7 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>117.957619508025</v>
+        <v>21.95449840010015</v>
       </c>
       <c r="C405">
         <v>6</v>
@@ -7576,7 +7576,7 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>132.8834075421006</v>
+        <v>67.89698078707183</v>
       </c>
       <c r="C406">
         <v>3</v>
@@ -7587,7 +7587,7 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>132.8344834747363</v>
+        <v>57.87054518492115</v>
       </c>
       <c r="C407">
         <v>3</v>
@@ -7598,7 +7598,7 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>124.9199743836029</v>
+        <v>38.3275357934736</v>
       </c>
       <c r="C408">
         <v>4</v>
@@ -7609,7 +7609,7 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>158.6190404711868</v>
+        <v>110.4536101718726</v>
       </c>
       <c r="C409">
         <v>3</v>
@@ -7620,7 +7620,7 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>163.3799253274404</v>
+        <v>117.4265728019003</v>
       </c>
       <c r="C410">
         <v>5</v>
@@ -7631,7 +7631,7 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>187.723200484117</v>
+        <v>150.3329637837291</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>180.6239186818844</v>
+        <v>131.2440474840669</v>
       </c>
       <c r="C412">
         <v>5</v>
@@ -7653,7 +7653,7 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>121.4948558581803</v>
+        <v>17</v>
       </c>
       <c r="C413">
         <v>3</v>
@@ -7664,7 +7664,7 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>120.0374941424553</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="C414">
         <v>4</v>
@@ -7675,7 +7675,7 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>160.206117236515</v>
+        <v>101.2422836565829</v>
       </c>
       <c r="C415">
         <v>3</v>
@@ -7686,7 +7686,7 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>130.5450113945378</v>
+        <v>45.5411901469428</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>123.3572048969982</v>
+        <v>21.18962010041709</v>
       </c>
       <c r="C417">
         <v>3</v>
@@ -7708,7 +7708,7 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>121.807224744676</v>
+        <v>12.2065556157337</v>
       </c>
       <c r="C418">
         <v>3</v>
@@ -7719,7 +7719,7 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>125.4192967609052</v>
+        <v>37.65634076752546</v>
       </c>
       <c r="C419">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>210.8743701828176</v>
+        <v>168.1071087134628</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -7741,7 +7741,7 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>200.4120754844877</v>
+        <v>155.1160855617495</v>
       </c>
       <c r="C421">
         <v>6</v>
@@ -7752,7 +7752,7 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>185.6986806630569</v>
+        <v>136.1322886019331</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>178.2806775845324</v>
+        <v>134.1342610968577</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -7774,7 +7774,7 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>129.0348790056394</v>
+        <v>35.35533905932738</v>
       </c>
       <c r="C424">
         <v>4</v>
@@ -7785,7 +7785,7 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>133.5402561027947</v>
+        <v>56.22277118748239</v>
       </c>
       <c r="C425">
         <v>2</v>
@@ -7796,7 +7796,7 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>196.1631973638277</v>
+        <v>148.054044186574</v>
       </c>
       <c r="C426">
         <v>3</v>
@@ -7807,7 +7807,7 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>170.484603410396</v>
+        <v>113.0707742964556</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -7818,7 +7818,7 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>126.1150268604023</v>
+        <v>27.29468812791236</v>
       </c>
       <c r="C428">
         <v>4</v>
@@ -7829,7 +7829,7 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>135.2479205015737</v>
+        <v>58.13776741499453</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -7840,7 +7840,7 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>169.799882214329</v>
+        <v>120.0666481584291</v>
       </c>
       <c r="C430">
         <v>3</v>
@@ -7851,7 +7851,7 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>128.0976190254916</v>
+        <v>24.18677324489565</v>
       </c>
       <c r="C431">
         <v>4</v>
@@ -7862,7 +7862,7 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>136.3084736911099</v>
+        <v>48.04164859785725</v>
       </c>
       <c r="C432">
         <v>3</v>
@@ -7873,7 +7873,7 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>162.1110730332755</v>
+        <v>106.0188662455886</v>
       </c>
       <c r="C433">
         <v>3</v>
@@ -7884,7 +7884,7 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>209.8046710633488</v>
+        <v>163.0030674557997</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>169.3310367298328</v>
+        <v>108.0046295304049</v>
       </c>
       <c r="C435">
         <v>3</v>
@@ -7906,7 +7906,7 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>156.236999459155</v>
+        <v>87.00574693662483</v>
       </c>
       <c r="C436">
         <v>4</v>
@@ -7917,7 +7917,7 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>127.0354281293215</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -7928,7 +7928,7 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>127.251719045363</v>
+        <v>12.0415945787923</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -7939,7 +7939,7 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>153.3786165017797</v>
+        <v>90.00555538409837</v>
       </c>
       <c r="C439">
         <v>3</v>
@@ -7950,7 +7950,7 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>175.4137964927502</v>
+        <v>125.003999936002</v>
       </c>
       <c r="C440">
         <v>3</v>
@@ -7961,7 +7961,7 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>186.0779406592839</v>
+        <v>140.0035713830187</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -7972,7 +7972,7 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>194.8255630044476</v>
+        <v>142.0035210831055</v>
       </c>
       <c r="C442">
         <v>4</v>
@@ -7983,7 +7983,7 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>188.1382470419027</v>
+        <v>132.015150645674</v>
       </c>
       <c r="C443">
         <v>3</v>
@@ -7994,7 +7994,7 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>151.6047492659778</v>
+        <v>74.02702209328699</v>
       </c>
       <c r="C444">
         <v>3</v>
@@ -8005,7 +8005,7 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>130.0961183125769</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="C445">
         <v>2</v>
@@ -8016,7 +8016,7 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>130.6483830745716</v>
+        <v>17.11724276862369</v>
       </c>
       <c r="C446">
         <v>5</v>
@@ -8027,7 +8027,7 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>159.2607924129476</v>
+        <v>96.02083107326243</v>
       </c>
       <c r="C447">
         <v>4</v>
@@ -8038,7 +8038,7 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>161.8208886392607</v>
+        <v>91.0494371207203</v>
       </c>
       <c r="C448">
         <v>3</v>
@@ -8049,7 +8049,7 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>142.467540162663</v>
+        <v>52.08646657242167</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -8060,7 +8060,7 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>134.6179779969971</v>
+        <v>35.12833614050059</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>140.8012784032872</v>
+        <v>45.17742799230607</v>
       </c>
       <c r="C451">
         <v>5</v>
@@ -8082,7 +8082,7 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>188.0957203128237</v>
+        <v>128.1405478371308</v>
       </c>
       <c r="C452">
         <v>3</v>
@@ -8093,7 +8093,7 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>170.8566650733883</v>
+        <v>102.1763181955584</v>
       </c>
       <c r="C453">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>141.0390016981119</v>
+        <v>40.44749683231337</v>
       </c>
       <c r="C454">
         <v>2</v>
@@ -8115,7 +8115,7 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>156.0640893991952</v>
+        <v>84.2140130857092</v>
       </c>
       <c r="C455">
         <v>4</v>
@@ -8126,7 +8126,7 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>160.312195418814</v>
+        <v>92.19544457292888</v>
       </c>
       <c r="C456">
         <v>3</v>
@@ -8137,7 +8137,7 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>173.5108065798785</v>
+        <v>105.2330746486104</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -8148,7 +8148,7 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>151.1588568361113</v>
+        <v>64.38167441127949</v>
       </c>
       <c r="C458">
         <v>2</v>
@@ -8159,7 +8159,7 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>176.6946518715267</v>
+        <v>118.2074447740074</v>
       </c>
       <c r="C459">
         <v>3</v>
@@ -8170,7 +8170,7 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>190.2130384595125</v>
+        <v>138.1774221788784</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>180.0555469848125</v>
+        <v>114.2803570172932</v>
       </c>
       <c r="C461">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>139.2695228684295</v>
+        <v>27.20294101747089</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>142.4429710445552</v>
+        <v>36.1386219991853</v>
       </c>
       <c r="C463">
         <v>5</v>
@@ -8214,7 +8214,7 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>194.4556504707436</v>
+        <v>142.2849254137626</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -8225,7 +8225,7 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>196.5807722031837</v>
+        <v>136.3671514698463</v>
       </c>
       <c r="C465">
         <v>3</v>
@@ -8236,7 +8236,7 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>159.0125781188394</v>
+        <v>75.66372975210778</v>
       </c>
       <c r="C466">
         <v>4</v>
@@ -8247,7 +8247,7 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>171.011695506477</v>
+        <v>105.4751155486449</v>
       </c>
       <c r="C467">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>210.440015206234</v>
+        <v>154.3923573238002</v>
       </c>
       <c r="C468">
         <v>3</v>
@@ -8269,7 +8269,7 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>153.0261415575783</v>
+        <v>61</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>139</v>
+        <v>11.70469991071963</v>
       </c>
       <c r="C470">
         <v>3</v>
@@ -8291,7 +8291,7 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>157.9430277030297</v>
+        <v>79.76214641043707</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -8302,7 +8302,7 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>176.6408786210033</v>
+        <v>113.5341358358798</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>184.9459380467708</v>
+        <v>126.4792473095883</v>
       </c>
       <c r="C473">
         <v>5</v>
@@ -8324,7 +8324,7 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>190.370691021491</v>
+        <v>125.5746789762968</v>
       </c>
       <c r="C474">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>140.356688476182</v>
+        <v>18.43908891458577</v>
       </c>
       <c r="C475">
         <v>5</v>
@@ -8346,7 +8346,7 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>171.4671980292441</v>
+        <v>103.6966730420991</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -8357,7 +8357,7 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>152.846328055338</v>
+        <v>64.32728814430156</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -8368,7 +8368,7 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>216.1781672602486</v>
+        <v>159.6151621870554</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -8379,7 +8379,7 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>190.5911855254592</v>
+        <v>122.9186723000212</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -8390,7 +8390,7 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>144.0069442770035</v>
+        <v>25.80697580112788</v>
       </c>
       <c r="C480">
         <v>3</v>
@@ -8401,7 +8401,7 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>156.262599492009</v>
+        <v>68.65857557508748</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -8412,7 +8412,7 @@
         <v>483</v>
       </c>
       <c r="B482">
-        <v>196.084165602427</v>
+        <v>137.0583817210753</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -8423,7 +8423,7 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>169.9558766268469</v>
+        <v>84.92938243034621</v>
       </c>
       <c r="C483">
         <v>3</v>
@@ -8434,7 +8434,7 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>158.2308440222702</v>
+        <v>59.77457653551382</v>
       </c>
       <c r="C484">
         <v>3</v>
@@ -8445,7 +8445,7 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>149.254815667703</v>
+        <v>39.35733730830886</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -8456,7 +8456,7 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>196.9009903479411</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -8467,7 +8467,7 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>177.2286658529032</v>
+        <v>96.88137075826292</v>
       </c>
       <c r="C487">
         <v>2</v>
@@ -8478,7 +8478,7 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>153.7335357038275</v>
+        <v>45.18849411078001</v>
       </c>
       <c r="C488">
         <v>5</v>
@@ -8489,7 +8489,7 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>147.0136048126159</v>
+        <v>19.1049731745428</v>
       </c>
       <c r="C489">
         <v>3</v>
@@ -8500,7 +8500,7 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>177.2286658529032</v>
+        <v>104.7377677822093</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>186.02419197513</v>
+        <v>119.5198728245642</v>
       </c>
       <c r="C491">
         <v>3</v>
@@ -8522,7 +8522,7 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>192.9611359833891</v>
+        <v>130.3917175283768</v>
       </c>
       <c r="C492">
         <v>4</v>
@@ -8533,7 +8533,7 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>208.5976989326584</v>
+        <v>144.3918280236108</v>
       </c>
       <c r="C493">
         <v>5</v>
@@ -8544,7 +8544,7 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>182.0439507371777</v>
+        <v>103.9422916814903</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -8555,7 +8555,7 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>168.7157372624143</v>
+        <v>79.55501241279521</v>
       </c>
       <c r="C495">
         <v>3</v>
@@ -8566,7 +8566,7 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>157.8892016573648</v>
+        <v>62.29767250869008</v>
       </c>
       <c r="C496">
         <v>3</v>
@@ -8577,7 +8577,7 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>180.8867048735202</v>
+        <v>109.8362417419679</v>
       </c>
       <c r="C497">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>207.1931466048045</v>
+        <v>150.3362896974646</v>
       </c>
       <c r="C498">
         <v>3</v>
@@ -8599,7 +8599,7 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>203.7694775966214</v>
+        <v>136.6235704408284</v>
       </c>
       <c r="C499">
         <v>3</v>
@@ -8610,7 +8610,7 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>196.4306493396588</v>
+        <v>125.7656550891379</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -8621,7 +8621,7 @@
         <v>502</v>
       </c>
       <c r="B501">
-        <v>149.6562728387955</v>
+        <v>23.25940669922602</v>
       </c>
       <c r="C501">
         <v>2</v>
@@ -8632,7 +8632,7 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>149.6562728387955</v>
+        <v>27.65863337187866</v>
       </c>
       <c r="C502">
         <v>5</v>
@@ -8643,7 +8643,7 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>165.4841382127</v>
+        <v>78.84795495128583</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -8654,7 +8654,7 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>178.3395637540924</v>
+        <v>104.1393297462587</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>214.2825237857721</v>
+        <v>159.3894601283284</v>
       </c>
       <c r="C505">
         <v>2</v>
@@ -8676,7 +8676,7 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>187.8004259846074</v>
+        <v>111.198021565134</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>508</v>
       </c>
       <c r="B507">
-        <v>152.7776161615307</v>
+        <v>33.30165161069343</v>
       </c>
       <c r="C507">
         <v>4</v>
@@ -8698,7 +8698,7 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>192.8756075816742</v>
+        <v>118.2581921052406</v>
       </c>
       <c r="C508">
         <v>5</v>
@@ -8709,7 +8709,7 @@
         <v>510</v>
       </c>
       <c r="B509">
-        <v>164.7938105633825</v>
+        <v>66.12866246946176</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -8720,7 +8720,7 @@
         <v>511</v>
       </c>
       <c r="B510">
-        <v>156.4672489692332</v>
+        <v>43.56604182158393</v>
       </c>
       <c r="C510">
         <v>3</v>
@@ -8731,7 +8731,7 @@
         <v>512</v>
       </c>
       <c r="B511">
-        <v>175.2769237521015</v>
+        <v>95.80187889597991</v>
       </c>
       <c r="C511">
         <v>4</v>
@@ -8742,7 +8742,7 @@
         <v>513</v>
       </c>
       <c r="B512">
-        <v>161.3071604114337</v>
+        <v>55.46169849544819</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -8753,7 +8753,7 @@
         <v>514</v>
       </c>
       <c r="B513">
-        <v>153.4438007871286</v>
+        <v>29.41088233970548</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>515</v>
       </c>
       <c r="B514">
-        <v>167.4305826305338</v>
+        <v>68.70953354520753</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -8775,7 +8775,7 @@
         <v>516</v>
       </c>
       <c r="B515">
-        <v>153.0294089382822</v>
+        <v>25.01999200639361</v>
       </c>
       <c r="C515">
         <v>3</v>
@@ -8786,7 +8786,7 @@
         <v>517</v>
       </c>
       <c r="B516">
-        <v>174.5422584934663</v>
+        <v>91.48223871331527</v>
       </c>
       <c r="C516">
         <v>3</v>
@@ -8797,7 +8797,7 @@
         <v>518</v>
       </c>
       <c r="B517">
-        <v>182.002747232013</v>
+        <v>104.2928568982555</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>519</v>
       </c>
       <c r="B518">
-        <v>192.4084197741876</v>
+        <v>113.2651755836718</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>520</v>
       </c>
       <c r="B519">
-        <v>188.3454273402994</v>
+        <v>106.4800450788785</v>
       </c>
       <c r="C519">
         <v>2</v>
@@ -8830,7 +8830,7 @@
         <v>521</v>
       </c>
       <c r="B520">
-        <v>158.902485820707</v>
+        <v>47.43416490252569</v>
       </c>
       <c r="C520">
         <v>2</v>
@@ -8841,7 +8841,7 @@
         <v>522</v>
       </c>
       <c r="B521">
-        <v>157.0350279396288</v>
+        <v>35.60898762952971</v>
       </c>
       <c r="C521">
         <v>4</v>
@@ -8852,7 +8852,7 @@
         <v>523</v>
       </c>
       <c r="B522">
-        <v>179.6023385148423</v>
+        <v>97.12363255150623</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -8863,7 +8863,7 @@
         <v>524</v>
       </c>
       <c r="B523">
-        <v>207.6174366473105</v>
+        <v>143.7532608325808</v>
       </c>
       <c r="C523">
         <v>3</v>
@@ -8874,7 +8874,7 @@
         <v>525</v>
       </c>
       <c r="B524">
-        <v>175.7555120046026</v>
+        <v>87.92041856133307</v>
       </c>
       <c r="C524">
         <v>3</v>
@@ -8885,7 +8885,7 @@
         <v>526</v>
       </c>
       <c r="B525">
-        <v>211.1018711428205</v>
+        <v>139.2695228684295</v>
       </c>
       <c r="C525">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         <v>527</v>
       </c>
       <c r="B526">
-        <v>186.9866305381216</v>
+        <v>100.5783276854413</v>
       </c>
       <c r="C526">
         <v>2</v>
@@ -8907,7 +8907,7 @@
         <v>528</v>
       </c>
       <c r="B527">
-        <v>170.8478855590551</v>
+        <v>75.23961722390672</v>
       </c>
       <c r="C527">
         <v>3</v>
@@ -8918,7 +8918,7 @@
         <v>529</v>
       </c>
       <c r="B528">
-        <v>208.5809195492243</v>
+        <v>134.6179779969971</v>
       </c>
       <c r="C528">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>530</v>
       </c>
       <c r="B529">
-        <v>199.804904844701</v>
+        <v>121.0371843691021</v>
       </c>
       <c r="C529">
         <v>3</v>
@@ -8940,7 +8940,7 @@
         <v>531</v>
       </c>
       <c r="B530">
-        <v>163.9542619147182</v>
+        <v>47.50789408087881</v>
       </c>
       <c r="C530">
         <v>2</v>
@@ -8951,7 +8951,7 @@
         <v>532</v>
       </c>
       <c r="B531">
-        <v>160.8011193990887</v>
+        <v>36.89173349139343</v>
       </c>
       <c r="C531">
         <v>5</v>
@@ -8962,7 +8962,7 @@
         <v>533</v>
       </c>
       <c r="B532">
-        <v>159.254513279844</v>
+        <v>31.40063693621516</v>
       </c>
       <c r="C532">
         <v>4</v>
@@ -8973,7 +8973,7 @@
         <v>534</v>
       </c>
       <c r="B533">
-        <v>161.2761606685874</v>
+        <v>43.84062043356595</v>
       </c>
       <c r="C533">
         <v>8</v>
@@ -8984,7 +8984,7 @@
         <v>535</v>
       </c>
       <c r="B534">
-        <v>219.2760816869911</v>
+        <v>158.0696049213763</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>536</v>
       </c>
       <c r="B535">
-        <v>224.1628872048181</v>
+        <v>156.3105882530035</v>
       </c>
       <c r="C535">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>537</v>
       </c>
       <c r="B536">
-        <v>164.9242250247064</v>
+        <v>54.40588203494178</v>
       </c>
       <c r="C536">
         <v>2</v>
@@ -9017,7 +9017,7 @@
         <v>538</v>
       </c>
       <c r="B537">
-        <v>189.2115218479044</v>
+        <v>109.7679370308106</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -9028,7 +9028,7 @@
         <v>539</v>
       </c>
       <c r="B538">
-        <v>225.5681715136247</v>
+        <v>166.1114083980989</v>
       </c>
       <c r="C538">
         <v>3</v>
@@ -9039,7 +9039,7 @@
         <v>540</v>
       </c>
       <c r="B539">
-        <v>173.6260349141222</v>
+        <v>69.35416353759881</v>
       </c>
       <c r="C539">
         <v>2</v>
@@ -9050,7 +9050,7 @@
         <v>541</v>
       </c>
       <c r="B540">
-        <v>162.4961538006362</v>
+        <v>42.01190307520001</v>
       </c>
       <c r="C540">
         <v>4</v>
@@ -9061,7 +9061,7 @@
         <v>542</v>
       </c>
       <c r="B541">
-        <v>165.3269488014583</v>
+        <v>44.68780594300866</v>
       </c>
       <c r="C541">
         <v>7</v>
@@ -9072,7 +9072,7 @@
         <v>543</v>
       </c>
       <c r="B542">
-        <v>169.2483382488584</v>
+        <v>62.96824596572466</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>544</v>
       </c>
       <c r="B543">
-        <v>216.0856311743102</v>
+        <v>150.8807476121457</v>
       </c>
       <c r="C543">
         <v>2</v>
@@ -9094,7 +9094,7 @@
         <v>545</v>
       </c>
       <c r="B544">
-        <v>206.0218435020908</v>
+        <v>126.9212354178764</v>
       </c>
       <c r="C544">
         <v>4</v>
@@ -9105,7 +9105,7 @@
         <v>546</v>
       </c>
       <c r="B545">
-        <v>179.8471573308847</v>
+        <v>80.05623023850174</v>
       </c>
       <c r="C545">
         <v>4</v>
@@ -9116,7 +9116,7 @@
         <v>547</v>
       </c>
       <c r="B546">
-        <v>189.1692363995795</v>
+        <v>105.9481005020855</v>
       </c>
       <c r="C546">
         <v>2</v>
@@ -9127,7 +9127,7 @@
         <v>548</v>
       </c>
       <c r="B547">
-        <v>192.8159744419533</v>
+        <v>112.57886124846</v>
       </c>
       <c r="C547">
         <v>2</v>
@@ -9138,7 +9138,7 @@
         <v>549</v>
       </c>
       <c r="B548">
-        <v>197.7700685139185</v>
+        <v>121.1651765153668</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -9149,7 +9149,7 @@
         <v>550</v>
       </c>
       <c r="B549">
-        <v>200.3022715797302</v>
+        <v>116.6919020326604</v>
       </c>
       <c r="C549">
         <v>3</v>
@@ -9160,7 +9160,7 @@
         <v>551</v>
       </c>
       <c r="B550">
-        <v>182.9371476764629</v>
+        <v>83.63013810822029</v>
       </c>
       <c r="C550">
         <v>3</v>
@@ -9171,7 +9171,7 @@
         <v>552</v>
       </c>
       <c r="B551">
-        <v>180.02499826413</v>
+        <v>77.41446893184762</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -9182,7 +9182,7 @@
         <v>553</v>
       </c>
       <c r="B552">
-        <v>214.4621178670023</v>
+        <v>145.7737973711325</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>554</v>
       </c>
       <c r="B553">
-        <v>219.1004335915381</v>
+        <v>144.1006592628916</v>
       </c>
       <c r="C553">
         <v>3</v>
@@ -9204,7 +9204,7 @@
         <v>555</v>
       </c>
       <c r="B554">
-        <v>166.8682114724072</v>
+        <v>40.16217125604641</v>
       </c>
       <c r="C554">
         <v>1</v>
@@ -9215,7 +9215,7 @@
         <v>556</v>
       </c>
       <c r="B555">
-        <v>187.8829422805593</v>
+        <v>99.53893710503444</v>
       </c>
       <c r="C555">
         <v>4</v>
@@ -9226,7 +9226,7 @@
         <v>557</v>
       </c>
       <c r="B556">
-        <v>207.2003861000264</v>
+        <v>133.5215338437961</v>
       </c>
       <c r="C556">
         <v>3</v>
@@ -9237,7 +9237,7 @@
         <v>558</v>
       </c>
       <c r="B557">
-        <v>210.8459153030952</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="C557">
         <v>3</v>
@@ -9248,7 +9248,7 @@
         <v>559</v>
       </c>
       <c r="B558">
-        <v>228.5278976405288</v>
+        <v>156.9235482647522</v>
       </c>
       <c r="C558">
         <v>2</v>
@@ -9259,7 +9259,7 @@
         <v>560</v>
       </c>
       <c r="B559">
-        <v>189.7076698502198</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="C559">
         <v>7</v>
@@ -9270,7 +9270,7 @@
         <v>561</v>
       </c>
       <c r="B560">
-        <v>177.451401797788</v>
+        <v>68.24221567329127</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -9281,7 +9281,7 @@
         <v>562</v>
       </c>
       <c r="B561">
-        <v>172.2004645754477</v>
+        <v>54.45181356024793</v>
       </c>
       <c r="C561">
         <v>4</v>
@@ -9292,7 +9292,7 @@
         <v>563</v>
       </c>
       <c r="B562">
-        <v>167.0029939851379</v>
+        <v>39.11521443121589</v>
       </c>
       <c r="C562">
         <v>2</v>
@@ -9303,7 +9303,7 @@
         <v>564</v>
       </c>
       <c r="B563">
-        <v>167.4305826305338</v>
+        <v>42.15447781671598</v>
       </c>
       <c r="C563">
         <v>4</v>
@@ -9314,7 +9314,7 @@
         <v>565</v>
       </c>
       <c r="B564">
-        <v>215.3717715950723</v>
+        <v>145.3306574677208</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -9325,7 +9325,7 @@
         <v>566</v>
       </c>
       <c r="B565">
-        <v>170</v>
+        <v>45.65084884205331</v>
       </c>
       <c r="C565">
         <v>5</v>
@@ -9336,7 +9336,7 @@
         <v>567</v>
       </c>
       <c r="B566">
-        <v>172.6962651593832</v>
+        <v>59.46427498927402</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -9347,7 +9347,7 @@
         <v>568</v>
       </c>
       <c r="B567">
-        <v>223.2330620674276</v>
+        <v>156.2081944073358</v>
       </c>
       <c r="C567">
         <v>3</v>
@@ -9358,7 +9358,7 @@
         <v>569</v>
       </c>
       <c r="B568">
-        <v>227.3785390048938</v>
+        <v>152.8823076748909</v>
       </c>
       <c r="C568">
         <v>3</v>
@@ -9369,7 +9369,7 @@
         <v>570</v>
       </c>
       <c r="B569">
-        <v>170.0029411510283</v>
+        <v>42.1070065428546</v>
       </c>
       <c r="C569">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>571</v>
       </c>
       <c r="B570">
-        <v>175.8550539506898</v>
+        <v>64.53681120105021</v>
       </c>
       <c r="C570">
         <v>3</v>
@@ -9391,7 +9391,7 @@
         <v>572</v>
       </c>
       <c r="B571">
-        <v>202.4845673131659</v>
+        <v>121.4907403878995</v>
       </c>
       <c r="C571">
         <v>3</v>
@@ -9402,7 +9402,7 @@
         <v>573</v>
       </c>
       <c r="B572">
-        <v>202.7856010667424</v>
+        <v>113.4636505670428</v>
       </c>
       <c r="C572">
         <v>3</v>
@@ -9413,7 +9413,7 @@
         <v>574</v>
       </c>
       <c r="B573">
-        <v>179.3237296065415</v>
+        <v>72.20110802473879</v>
       </c>
       <c r="C573">
         <v>4</v>
@@ -9424,7 +9424,7 @@
         <v>575</v>
       </c>
       <c r="B574">
-        <v>234.1815535006974</v>
+        <v>169.5435047414085</v>
       </c>
       <c r="C574">
         <v>4</v>
@@ -9435,7 +9435,7 @@
         <v>576</v>
       </c>
       <c r="B575">
-        <v>190.9790564433702</v>
+        <v>90.4267659490264</v>
       </c>
       <c r="C575">
         <v>4</v>
@@ -9446,7 +9446,7 @@
         <v>577</v>
       </c>
       <c r="B576">
-        <v>179.1200714604592</v>
+        <v>63.6553218513582</v>
       </c>
       <c r="C576">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>578</v>
       </c>
       <c r="B577">
-        <v>173.2772345116346</v>
+        <v>47.16990566028302</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>579</v>
       </c>
       <c r="B578">
-        <v>172.4905794529081</v>
+        <v>47.16990566028302</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -9479,7 +9479,7 @@
         <v>580</v>
       </c>
       <c r="B579">
-        <v>210.5445321066306</v>
+        <v>124.4226667452518</v>
       </c>
       <c r="C579">
         <v>5</v>
@@ -9490,7 +9490,7 @@
         <v>581</v>
       </c>
       <c r="B580">
-        <v>177.124250174842</v>
+        <v>56.4003546088143</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         <v>582</v>
       </c>
       <c r="B581">
-        <v>173.1848723185718</v>
+        <v>45.17742799230607</v>
       </c>
       <c r="C581">
         <v>3</v>
@@ -9512,7 +9512,7 @@
         <v>583</v>
       </c>
       <c r="B582">
-        <v>189.4755920956575</v>
+        <v>84.59905436823747</v>
       </c>
       <c r="C582">
         <v>2</v>
@@ -9523,7 +9523,7 @@
         <v>584</v>
       </c>
       <c r="B583">
-        <v>208.0192298803166</v>
+        <v>126.6491215919005</v>
       </c>
       <c r="C583">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>585</v>
       </c>
       <c r="B584">
-        <v>212.5088233462319</v>
+        <v>134.1342610968577</v>
       </c>
       <c r="C584">
         <v>3</v>
@@ -9545,7 +9545,7 @@
         <v>586</v>
       </c>
       <c r="B585">
-        <v>225.9955751779225</v>
+        <v>154.3308135143465</v>
       </c>
       <c r="C585">
         <v>4</v>
@@ -9556,7 +9556,7 @@
         <v>587</v>
       </c>
       <c r="B586">
-        <v>245.3752228730521</v>
+        <v>182.1675053350624</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>588</v>
       </c>
       <c r="B587">
-        <v>229.3141949378625</v>
+        <v>150.8409758653132</v>
       </c>
       <c r="C587">
         <v>3</v>
@@ -9578,7 +9578,7 @@
         <v>589</v>
       </c>
       <c r="B588">
-        <v>233.9615353001429</v>
+        <v>156.8502470511283</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -9589,7 +9589,7 @@
         <v>590</v>
       </c>
       <c r="B589">
-        <v>226.2962659877533</v>
+        <v>145.4991408909345</v>
       </c>
       <c r="C589">
         <v>4</v>
@@ -9600,7 +9600,7 @@
         <v>591</v>
       </c>
       <c r="B590">
-        <v>178.2414093301554</v>
+        <v>55.00909015790027</v>
       </c>
       <c r="C590">
         <v>2</v>
@@ -9611,7 +9611,7 @@
         <v>592</v>
       </c>
       <c r="B591">
-        <v>188.2153022471871</v>
+        <v>83.81527307120105</v>
       </c>
       <c r="C591">
         <v>2</v>
@@ -9622,7 +9622,7 @@
         <v>593</v>
       </c>
       <c r="B592">
-        <v>178.4040358287895</v>
+        <v>52.49761899362675</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -9633,7 +9633,7 @@
         <v>594</v>
       </c>
       <c r="B593">
-        <v>180.8535318980528</v>
+        <v>61.61168720299745</v>
       </c>
       <c r="C593">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>595</v>
       </c>
       <c r="B594">
-        <v>186.0107523773827</v>
+        <v>76.57675887630658</v>
       </c>
       <c r="C594">
         <v>4</v>
@@ -9655,7 +9655,7 @@
         <v>596</v>
       </c>
       <c r="B595">
-        <v>196.8247951859724</v>
+        <v>101.21264743104</v>
       </c>
       <c r="C595">
         <v>4</v>
@@ -9666,7 +9666,7 @@
         <v>597</v>
       </c>
       <c r="B596">
-        <v>213.0633708547765</v>
+        <v>121.671689394041</v>
       </c>
       <c r="C596">
         <v>5</v>
@@ -9677,7 +9677,7 @@
         <v>598</v>
       </c>
       <c r="B597">
-        <v>205.4288197892399</v>
+        <v>108.3005078473781</v>
       </c>
       <c r="C597">
         <v>6</v>
@@ -9688,7 +9688,7 @@
         <v>599</v>
       </c>
       <c r="B598">
-        <v>186.034942954274</v>
+        <v>67.47592163134935</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -9699,7 +9699,7 @@
         <v>600</v>
       </c>
       <c r="B599">
-        <v>183.96738841436</v>
+        <v>62.12889826803627</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -9710,7 +9710,7 @@
         <v>601</v>
       </c>
       <c r="B600">
-        <v>222.6229997102725</v>
+        <v>144.668586776812</v>
       </c>
       <c r="C600">
         <v>5</v>
@@ -9721,7 +9721,7 @@
         <v>602</v>
       </c>
       <c r="B601">
-        <v>185.8090417606205</v>
+        <v>65.21502894272147</v>
       </c>
       <c r="C601">
         <v>2</v>
@@ -9732,7 +9732,7 @@
         <v>603</v>
       </c>
       <c r="B602">
-        <v>181.1767093199344</v>
+        <v>54.3415126767741</v>
       </c>
       <c r="C602">
         <v>4</v>
@@ -9743,7 +9743,7 @@
         <v>604</v>
       </c>
       <c r="B603">
-        <v>181.5406290613757</v>
+        <v>55.97320787662612</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -9754,7 +9754,7 @@
         <v>605</v>
       </c>
       <c r="B604">
-        <v>191.6507239746305</v>
+        <v>85.42833253669417</v>
       </c>
       <c r="C604">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         <v>606</v>
       </c>
       <c r="B605">
-        <v>208.7510479015614</v>
+        <v>120.3037821516847</v>
       </c>
       <c r="C605">
         <v>9</v>
@@ -9776,7 +9776,7 @@
         <v>607</v>
       </c>
       <c r="B606">
-        <v>222.503932549517</v>
+        <v>135.2479205015737</v>
       </c>
       <c r="C606">
         <v>4</v>
@@ -9787,7 +9787,7 @@
         <v>608</v>
       </c>
       <c r="B607">
-        <v>193.940712590214</v>
+        <v>82.97590011563598</v>
       </c>
       <c r="C607">
         <v>3</v>
@@ -9798,7 +9798,7 @@
         <v>609</v>
       </c>
       <c r="B608">
-        <v>185.7229118875752</v>
+        <v>63.28506932918696</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -9809,7 +9809,7 @@
         <v>610</v>
       </c>
       <c r="B609">
-        <v>244.989795705862</v>
+        <v>176.4652940382329</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -9820,7 +9820,7 @@
         <v>611</v>
       </c>
       <c r="B610">
-        <v>219.3855054464629</v>
+        <v>129.2826361117378</v>
       </c>
       <c r="C610">
         <v>4</v>
@@ -9831,7 +9831,7 @@
         <v>612</v>
       </c>
       <c r="B611">
-        <v>183.0027322200409</v>
+        <v>55.22680508593631</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -9842,7 +9842,7 @@
         <v>613</v>
       </c>
       <c r="B612">
-        <v>186.7029726597839</v>
+        <v>68.60029154456998</v>
       </c>
       <c r="C612">
         <v>3</v>
@@ -9853,7 +9853,7 @@
         <v>614</v>
       </c>
       <c r="B613">
-        <v>207.1183236703117</v>
+        <v>115.0043477439005</v>
       </c>
       <c r="C613">
         <v>2</v>
@@ -9864,7 +9864,7 @@
         <v>615</v>
       </c>
       <c r="B614">
-        <v>242.4252462100431</v>
+        <v>172.0290673113122</v>
       </c>
       <c r="C614">
         <v>3</v>
@@ -9875,7 +9875,7 @@
         <v>616</v>
       </c>
       <c r="B615">
-        <v>188.9576672167605</v>
+        <v>68.24221567329127</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>617</v>
       </c>
       <c r="B616">
-        <v>184.2715387681993</v>
+        <v>56.32051136131489</v>
       </c>
       <c r="C616">
         <v>3</v>
@@ -9897,7 +9897,7 @@
         <v>618</v>
       </c>
       <c r="B617">
-        <v>230.2042571283164</v>
+        <v>144.6996890114143</v>
       </c>
       <c r="C617">
         <v>3</v>
@@ -9908,7 +9908,7 @@
         <v>619</v>
       </c>
       <c r="B618">
-        <v>199.2510978639766</v>
+        <v>90.27181176868004</v>
       </c>
       <c r="C618">
         <v>3</v>
@@ -9919,7 +9919,7 @@
         <v>620</v>
       </c>
       <c r="B619">
-        <v>205.7304061144098</v>
+        <v>109.9317970379817</v>
       </c>
       <c r="C619">
         <v>4</v>
@@ -9930,7 +9930,7 @@
         <v>621</v>
       </c>
       <c r="B620">
-        <v>209.3537675801417</v>
+        <v>116.8460525649027</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         <v>622</v>
       </c>
       <c r="B621">
-        <v>240.8422720371156</v>
+        <v>159.8905875903895</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -9952,7 +9952,7 @@
         <v>623</v>
       </c>
       <c r="B622">
-        <v>216.6033240742164</v>
+        <v>121.7086685491218</v>
       </c>
       <c r="C622">
         <v>6</v>
@@ -9963,7 +9963,7 @@
         <v>624</v>
       </c>
       <c r="B623">
-        <v>204.5018337326098</v>
+        <v>99.62429422585637</v>
       </c>
       <c r="C623">
         <v>2</v>
@@ -9974,7 +9974,7 @@
         <v>625</v>
       </c>
       <c r="B624">
-        <v>194.8332620473209</v>
+        <v>79.2464510246358</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>626</v>
       </c>
       <c r="B625">
-        <v>223.5441790787673</v>
+        <v>140.5275773647294</v>
       </c>
       <c r="C625">
         <v>4</v>
@@ -9996,7 +9996,7 @@
         <v>627</v>
       </c>
       <c r="B626">
-        <v>239.5767100533773</v>
+        <v>165.4962235218677</v>
       </c>
       <c r="C626">
         <v>4</v>
@@ -10007,7 +10007,7 @@
         <v>628</v>
       </c>
       <c r="B627">
-        <v>198.9798984822336</v>
+        <v>93.08598175880189</v>
       </c>
       <c r="C627">
         <v>3</v>
@@ -10018,7 +10018,7 @@
         <v>629</v>
       </c>
       <c r="B628">
-        <v>214.4621178670023</v>
+        <v>123.9435355313055</v>
       </c>
       <c r="C628">
         <v>4</v>
@@ -10029,7 +10029,7 @@
         <v>630</v>
       </c>
       <c r="B629">
-        <v>190.7039590569635</v>
+        <v>66.21178142898739</v>
       </c>
       <c r="C629">
         <v>4</v>
@@ -10040,7 +10040,7 @@
         <v>631</v>
       </c>
       <c r="B630">
-        <v>205.5066908886424</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="C630">
         <v>3</v>
@@ -10051,7 +10051,7 @@
         <v>632</v>
       </c>
       <c r="B631">
-        <v>196.2906008957128</v>
+        <v>78.24321056807422</v>
       </c>
       <c r="C631">
         <v>5</v>
@@ -10062,7 +10062,7 @@
         <v>633</v>
       </c>
       <c r="B632">
-        <v>194.2832983043061</v>
+        <v>73.49829930005184</v>
       </c>
       <c r="C632">
         <v>4</v>
@@ -10073,7 +10073,7 @@
         <v>634</v>
       </c>
       <c r="B633">
-        <v>199.2234925906079</v>
+        <v>90.60905032059435</v>
       </c>
       <c r="C633">
         <v>4</v>
@@ -10084,7 +10084,7 @@
         <v>635</v>
       </c>
       <c r="B634">
-        <v>190.5911855254592</v>
+        <v>62.96824596572466</v>
       </c>
       <c r="C634">
         <v>3</v>
@@ -10095,7 +10095,7 @@
         <v>636</v>
       </c>
       <c r="B635">
-        <v>190.1289036417135</v>
+        <v>62.07253821135398</v>
       </c>
       <c r="C635">
         <v>2</v>
@@ -10106,7 +10106,7 @@
         <v>637</v>
       </c>
       <c r="B636">
-        <v>191.7706964058899</v>
+        <v>68.87670143089025</v>
       </c>
       <c r="C636">
         <v>3</v>
@@ -10117,7 +10117,7 @@
         <v>638</v>
       </c>
       <c r="B637">
-        <v>233.6578695443404</v>
+        <v>153.1143363633856</v>
       </c>
       <c r="C637">
         <v>2</v>
@@ -10128,7 +10128,7 @@
         <v>639</v>
       </c>
       <c r="B638">
-        <v>217.4787345926033</v>
+        <v>118.1905241548577</v>
       </c>
       <c r="C638">
         <v>4</v>
@@ -10139,7 +10139,7 @@
         <v>640</v>
       </c>
       <c r="B639">
-        <v>202.0816666597938</v>
+        <v>88.3911760301898</v>
       </c>
       <c r="C639">
         <v>3</v>
@@ -10150,7 +10150,7 @@
         <v>641</v>
       </c>
       <c r="B640">
-        <v>235.2870587176439</v>
+        <v>146.696966567138</v>
       </c>
       <c r="C640">
         <v>2</v>
@@ -10161,7 +10161,7 @@
         <v>642</v>
       </c>
       <c r="B641">
-        <v>200.2823007656942</v>
+        <v>88.41379982785493</v>
       </c>
       <c r="C641">
         <v>5</v>
@@ -10172,7 +10172,7 @@
         <v>643</v>
       </c>
       <c r="B642">
-        <v>194.8794499171218</v>
+        <v>68.94925670375279</v>
       </c>
       <c r="C642">
         <v>2</v>
@@ -10183,7 +10183,7 @@
         <v>644</v>
       </c>
       <c r="B643">
-        <v>193</v>
+        <v>65.12296062065974</v>
       </c>
       <c r="C643">
         <v>2</v>
@@ -10194,7 +10194,7 @@
         <v>645</v>
       </c>
       <c r="B644">
-        <v>207.7931663938928</v>
+        <v>103.8556690797378</v>
       </c>
       <c r="C644">
         <v>3</v>
@@ -10205,7 +10205,7 @@
         <v>646</v>
       </c>
       <c r="B645">
-        <v>242.2003303053074</v>
+        <v>162.9631860267834</v>
       </c>
       <c r="C645">
         <v>3</v>
@@ -10216,7 +10216,7 @@
         <v>647</v>
       </c>
       <c r="B646">
-        <v>226.3846284534354</v>
+        <v>129.6533840669036</v>
       </c>
       <c r="C646">
         <v>4</v>
@@ -10227,7 +10227,7 @@
         <v>648</v>
       </c>
       <c r="B647">
-        <v>199.0602923739438</v>
+        <v>76.05918747922567</v>
       </c>
       <c r="C647">
         <v>4</v>
@@ -10238,7 +10238,7 @@
         <v>649</v>
       </c>
       <c r="B648">
-        <v>219.1460700081113</v>
+        <v>123.7133784196358</v>
       </c>
       <c r="C648">
         <v>2</v>
@@ -10249,7 +10249,7 @@
         <v>650</v>
       </c>
       <c r="B649">
-        <v>240.8651074771936</v>
+        <v>152.0526224699857</v>
       </c>
       <c r="C649">
         <v>4</v>
@@ -10260,7 +10260,7 @@
         <v>651</v>
       </c>
       <c r="B650">
-        <v>199.8424379354896</v>
+        <v>80.45495634204272</v>
       </c>
       <c r="C650">
         <v>2</v>
@@ -10271,7 +10271,7 @@
         <v>652</v>
       </c>
       <c r="B651">
-        <v>215.2603075348542</v>
+        <v>115.20850663037</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -10282,7 +10282,7 @@
         <v>653</v>
       </c>
       <c r="B652">
-        <v>221.8828519737386</v>
+        <v>127.6244490683505</v>
       </c>
       <c r="C652">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>654</v>
       </c>
       <c r="B653">
-        <v>238.8179222755277</v>
+        <v>148.0607983228512</v>
       </c>
       <c r="C653">
         <v>1</v>
@@ -10304,7 +10304,7 @@
         <v>655</v>
       </c>
       <c r="B654">
-        <v>236.027540765903</v>
+        <v>143.6558387257545</v>
       </c>
       <c r="C654">
         <v>2</v>
@@ -10315,7 +10315,7 @@
         <v>656</v>
       </c>
       <c r="B655">
-        <v>232.2455596992115</v>
+        <v>137.5572608043647</v>
       </c>
       <c r="C655">
         <v>4</v>
@@ -10326,7 +10326,7 @@
         <v>657</v>
       </c>
       <c r="B656">
-        <v>197.3068675946177</v>
+        <v>70.61161377563892</v>
       </c>
       <c r="C656">
         <v>4</v>
@@ -10337,7 +10337,7 @@
         <v>658</v>
       </c>
       <c r="B657">
-        <v>204.533615819014</v>
+        <v>90.78546139112804</v>
       </c>
       <c r="C657">
         <v>1</v>
@@ -10348,7 +10348,7 @@
         <v>659</v>
       </c>
       <c r="B658">
-        <v>229.6366695456107</v>
+        <v>140.1606221447379</v>
       </c>
       <c r="C658">
         <v>2</v>
@@ -10359,7 +10359,7 @@
         <v>660</v>
       </c>
       <c r="B659">
-        <v>201.0696396774013</v>
+        <v>76.55716818169282</v>
       </c>
       <c r="C659">
         <v>3</v>
@@ -10370,7 +10370,7 @@
         <v>661</v>
       </c>
       <c r="B660">
-        <v>221.3707297724792</v>
+        <v>124.5351356043747</v>
       </c>
       <c r="C660">
         <v>1</v>
@@ -10381,7 +10381,7 @@
         <v>662</v>
       </c>
       <c r="B661">
-        <v>253.9389690457138</v>
+        <v>177.3950393894936</v>
       </c>
       <c r="C661">
         <v>2</v>
@@ -10392,7 +10392,7 @@
         <v>663</v>
       </c>
       <c r="B662">
-        <v>204.707107839469</v>
+        <v>83.52843827104634</v>
       </c>
       <c r="C662">
         <v>4</v>
@@ -10403,7 +10403,7 @@
         <v>664</v>
       </c>
       <c r="B663">
-        <v>236.6114959168299</v>
+        <v>149.8832879276405</v>
       </c>
       <c r="C663">
         <v>4</v>
@@ -10414,7 +10414,7 @@
         <v>665</v>
       </c>
       <c r="B664">
-        <v>251.6286947071021</v>
+        <v>173.219513912261</v>
       </c>
       <c r="C664">
         <v>1</v>
@@ -10425,7 +10425,7 @@
         <v>666</v>
       </c>
       <c r="B665">
-        <v>201.0024875467963</v>
+        <v>73.06161783043132</v>
       </c>
       <c r="C665">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>667</v>
       </c>
       <c r="B666">
-        <v>234.4461558652647</v>
+        <v>136.7515996250135</v>
       </c>
       <c r="C666">
         <v>2</v>
@@ -10447,7 +10447,7 @@
         <v>668</v>
       </c>
       <c r="B667">
-        <v>224.9555511651135</v>
+        <v>120.4200979903272</v>
       </c>
       <c r="C667">
         <v>1</v>
@@ -10458,7 +10458,7 @@
         <v>669</v>
       </c>
       <c r="B668">
-        <v>220.3361068912674</v>
+        <v>111.9464157532522</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -10469,7 +10469,7 @@
         <v>670</v>
       </c>
       <c r="B669">
-        <v>202.0396000787964</v>
+        <v>74.43117626371358</v>
       </c>
       <c r="C669">
         <v>3</v>
@@ -10480,7 +10480,7 @@
         <v>671</v>
       </c>
       <c r="B670">
-        <v>205.3533540023147</v>
+        <v>79.71198153351854</v>
       </c>
       <c r="C670">
         <v>4</v>
@@ -10491,7 +10491,7 @@
         <v>672</v>
       </c>
       <c r="B671">
-        <v>207.2993005294519</v>
+        <v>87.98295289429652</v>
       </c>
       <c r="C671">
         <v>3</v>
@@ -10502,7 +10502,7 @@
         <v>673</v>
       </c>
       <c r="B672">
-        <v>246.0284536390049</v>
+        <v>161.4744561842523</v>
       </c>
       <c r="C672">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>674</v>
       </c>
       <c r="B673">
-        <v>225.0355527466716</v>
+        <v>118.5622199522259</v>
       </c>
       <c r="C673">
         <v>3</v>
@@ -10524,7 +10524,7 @@
         <v>675</v>
       </c>
       <c r="B674">
-        <v>219.8635940759634</v>
+        <v>114.7693338832286</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -10535,7 +10535,7 @@
         <v>676</v>
       </c>
       <c r="B675">
-        <v>230.3584163862914</v>
+        <v>134.5250905965129</v>
       </c>
       <c r="C675">
         <v>4</v>
@@ -10546,7 +10546,7 @@
         <v>677</v>
       </c>
       <c r="B676">
-        <v>239.2509143138224</v>
+        <v>149.7230777134908</v>
       </c>
       <c r="C676">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         <v>678</v>
       </c>
       <c r="B677">
-        <v>206.1771083316477</v>
+        <v>79.07591289387686</v>
       </c>
       <c r="C677">
         <v>4</v>
@@ -10568,7 +10568,7 @@
         <v>679</v>
       </c>
       <c r="B678">
-        <v>205.4774926847221</v>
+        <v>77.64663547121665</v>
       </c>
       <c r="C678">
         <v>3</v>
@@ -10579,7 +10579,7 @@
         <v>680</v>
       </c>
       <c r="B679">
-        <v>205.0609665440988</v>
+        <v>77.00649323271382</v>
       </c>
       <c r="C679">
         <v>5</v>
@@ -10590,7 +10590,7 @@
         <v>681</v>
       </c>
       <c r="B680">
-        <v>244.3644818708316</v>
+        <v>157.1559734785795</v>
       </c>
       <c r="C680">
         <v>3</v>
@@ -10601,7 +10601,7 @@
         <v>682</v>
       </c>
       <c r="B681">
-        <v>254.0177159176108</v>
+        <v>172.1772342674838</v>
       </c>
       <c r="C681">
         <v>2</v>
@@ -10612,7 +10612,7 @@
         <v>683</v>
       </c>
       <c r="B682">
-        <v>230.3150016824783</v>
+        <v>126.0357092256</v>
       </c>
       <c r="C682">
         <v>1</v>
@@ -10623,7 +10623,7 @@
         <v>684</v>
       </c>
       <c r="B683">
-        <v>209.1219739769114</v>
+        <v>84.30895563343196</v>
       </c>
       <c r="C683">
         <v>4</v>
@@ -10634,7 +10634,7 @@
         <v>685</v>
       </c>
       <c r="B684">
-        <v>223.0201784592596</v>
+        <v>111.7228714274745</v>
       </c>
       <c r="C684">
         <v>3</v>
@@ -10645,7 +10645,7 @@
         <v>686</v>
       </c>
       <c r="B685">
-        <v>209.1626161626403</v>
+        <v>86.00581375697809</v>
       </c>
       <c r="C685">
         <v>2</v>
@@ -10656,7 +10656,7 @@
         <v>687</v>
       </c>
       <c r="B686">
-        <v>213.4314878362609</v>
+        <v>96.83491106000976</v>
       </c>
       <c r="C686">
         <v>7</v>
@@ -10667,7 +10667,7 @@
         <v>688</v>
       </c>
       <c r="B687">
-        <v>225.3219918250325</v>
+        <v>122.0245876862528</v>
       </c>
       <c r="C687">
         <v>1</v>
@@ -10678,7 +10678,7 @@
         <v>689</v>
       </c>
       <c r="B688">
-        <v>243.1871707142463</v>
+        <v>145.8903697986951</v>
       </c>
       <c r="C688">
         <v>3</v>
@@ -10689,7 +10689,7 @@
         <v>690</v>
       </c>
       <c r="B689">
-        <v>215.6687274502263</v>
+        <v>95.96353474106714</v>
       </c>
       <c r="C689">
         <v>6</v>
@@ -10700,7 +10700,7 @@
         <v>691</v>
       </c>
       <c r="B690">
-        <v>220.7713749560844</v>
+        <v>111.7318217877074</v>
       </c>
       <c r="C690">
         <v>7</v>
@@ -10711,7 +10711,7 @@
         <v>692</v>
       </c>
       <c r="B691">
-        <v>214.0023364358436</v>
+        <v>91.2414379544733</v>
       </c>
       <c r="C691">
         <v>6</v>
@@ -10722,7 +10722,7 @@
         <v>693</v>
       </c>
       <c r="B692">
-        <v>209.8618593265579</v>
+        <v>84.20213774008353</v>
       </c>
       <c r="C692">
         <v>3</v>
@@ -10733,7 +10733,7 @@
         <v>694</v>
       </c>
       <c r="B693">
-        <v>219.4766502386985</v>
+        <v>107.712580509428</v>
       </c>
       <c r="C693">
         <v>3</v>
@@ -10744,7 +10744,7 @@
         <v>695</v>
       </c>
       <c r="B694">
-        <v>250.1919263285688</v>
+        <v>155.3962676514465</v>
       </c>
       <c r="C694">
         <v>2</v>
@@ -10755,7 +10755,7 @@
         <v>696</v>
       </c>
       <c r="B695">
-        <v>212.1320343559643</v>
+        <v>86.02325267042627</v>
       </c>
       <c r="C695">
         <v>2</v>
@@ -10766,7 +10766,7 @@
         <v>697</v>
       </c>
       <c r="B696">
-        <v>210.3425777154972</v>
+        <v>83.54639429682169</v>
       </c>
       <c r="C696">
         <v>5</v>
@@ -10777,7 +10777,7 @@
         <v>698</v>
       </c>
       <c r="B697">
-        <v>214.946504972749</v>
+        <v>90.87353850269065</v>
       </c>
       <c r="C697">
         <v>3</v>
@@ -10788,7 +10788,7 @@
         <v>699</v>
       </c>
       <c r="B698">
-        <v>215.1394896340511</v>
+        <v>94.89467845985885</v>
       </c>
       <c r="C698">
         <v>2</v>
@@ -10799,7 +10799,7 @@
         <v>700</v>
       </c>
       <c r="B699">
-        <v>230.9913418290824</v>
+        <v>128.42507543311</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>701</v>
       </c>
       <c r="B700">
-        <v>231.9051530259731</v>
+        <v>123.1097071720991</v>
       </c>
       <c r="C700">
         <v>2</v>
@@ -10821,7 +10821,7 @@
         <v>702</v>
       </c>
       <c r="B701">
-        <v>247.6449070746257</v>
+        <v>156.4608577248636</v>
       </c>
       <c r="C701">
         <v>1</v>
@@ -10832,7 +10832,7 @@
         <v>703</v>
       </c>
       <c r="B702">
-        <v>258.8010819142764</v>
+        <v>166.3550420035413</v>
       </c>
       <c r="C702">
         <v>2</v>
@@ -10843,7 +10843,7 @@
         <v>704</v>
       </c>
       <c r="B703">
-        <v>213.1900560532784</v>
+        <v>85.14693182963201</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>705</v>
       </c>
       <c r="B704">
-        <v>213.0375553746334</v>
+        <v>85</v>
       </c>
       <c r="C704">
         <v>1</v>
@@ -10865,7 +10865,7 @@
         <v>706</v>
       </c>
       <c r="B705">
-        <v>218.1238180483736</v>
+        <v>99.12618221237011</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -10876,7 +10876,7 @@
         <v>707</v>
       </c>
       <c r="B706">
-        <v>238.8158286211364</v>
+        <v>140.60227594175</v>
       </c>
       <c r="C706">
         <v>3</v>
@@ -10887,7 +10887,7 @@
         <v>708</v>
       </c>
       <c r="B707">
-        <v>241.074677226788</v>
+        <v>137.2770920437929</v>
       </c>
       <c r="C707">
         <v>3</v>
@@ -10898,7 +10898,7 @@
         <v>709</v>
       </c>
       <c r="B708">
-        <v>229.532132826757</v>
+        <v>116.777566338745</v>
       </c>
       <c r="C708">
         <v>3</v>
@@ -10909,7 +10909,7 @@
         <v>710</v>
       </c>
       <c r="B709">
-        <v>216.0925727552893</v>
+        <v>92.47702417357513</v>
       </c>
       <c r="C709">
         <v>3</v>
@@ -10920,7 +10920,7 @@
         <v>711</v>
       </c>
       <c r="B710">
-        <v>259.0598386473673</v>
+        <v>172.9045979724079</v>
       </c>
       <c r="C710">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>712</v>
       </c>
       <c r="B711">
-        <v>220.5130381632796</v>
+        <v>101.8724692937204</v>
       </c>
       <c r="C711">
         <v>2</v>
@@ -10942,7 +10942,7 @@
         <v>713</v>
       </c>
       <c r="B712">
-        <v>225.8007971642261</v>
+        <v>113.5693620656557</v>
       </c>
       <c r="C712">
         <v>3</v>
@@ -10953,7 +10953,7 @@
         <v>714</v>
       </c>
       <c r="B713">
-        <v>250.7309314783479</v>
+        <v>158.927656498169</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>715</v>
       </c>
       <c r="B714">
-        <v>216.9239498073</v>
+        <v>89.44271909999159</v>
       </c>
       <c r="C714">
         <v>3</v>
@@ -10975,7 +10975,7 @@
         <v>716</v>
       </c>
       <c r="B715">
-        <v>216.0023148024113</v>
+        <v>88.14193099768123</v>
       </c>
       <c r="C715">
         <v>2</v>
@@ -10986,7 +10986,7 @@
         <v>717</v>
       </c>
       <c r="B716">
-        <v>216.27991122617</v>
+        <v>89.26925562588724</v>
       </c>
       <c r="C716">
         <v>3</v>
@@ -10997,7 +10997,7 @@
         <v>718</v>
       </c>
       <c r="B717">
-        <v>232.1228123214088</v>
+        <v>125.1598977308627</v>
       </c>
       <c r="C717">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>719</v>
       </c>
       <c r="B718">
-        <v>221.2193481592422</v>
+        <v>97.16995420396162</v>
       </c>
       <c r="C718">
         <v>1</v>
@@ -11019,7 +11019,7 @@
         <v>720</v>
       </c>
       <c r="B719">
-        <v>220.476756144497</v>
+        <v>95.63472172804185</v>
       </c>
       <c r="C719">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>721</v>
       </c>
       <c r="B720">
-        <v>246.9412885687608</v>
+        <v>143.6802004452945</v>
       </c>
       <c r="C720">
         <v>5</v>
@@ -11041,7 +11041,7 @@
         <v>722</v>
       </c>
       <c r="B721">
-        <v>238.2015952927268</v>
+        <v>128.7012043455694</v>
       </c>
       <c r="C721">
         <v>6</v>
@@ -11052,7 +11052,7 @@
         <v>723</v>
       </c>
       <c r="B722">
-        <v>230.8679276123039</v>
+        <v>115.2562362737913</v>
       </c>
       <c r="C722">
         <v>4</v>
@@ -11063,7 +11063,7 @@
         <v>724</v>
       </c>
       <c r="B723">
-        <v>223.4390297150433</v>
+        <v>100.6230589874905</v>
       </c>
       <c r="C723">
         <v>4</v>
@@ -11074,7 +11074,7 @@
         <v>725</v>
       </c>
       <c r="B724">
-        <v>221.4610575247937</v>
+        <v>99.74467404327912</v>
       </c>
       <c r="C724">
         <v>3</v>
@@ -11085,7 +11085,7 @@
         <v>726</v>
       </c>
       <c r="B725">
-        <v>225.0777643393501</v>
+        <v>108.1665382639197</v>
       </c>
       <c r="C725">
         <v>5</v>
@@ -11096,7 +11096,7 @@
         <v>727</v>
       </c>
       <c r="B726">
-        <v>256.7430622236948</v>
+        <v>158.6852230045381</v>
       </c>
       <c r="C726">
         <v>2</v>
@@ -11107,7 +11107,7 @@
         <v>728</v>
       </c>
       <c r="B727">
-        <v>244.1823089414956</v>
+        <v>138.1918955655505</v>
       </c>
       <c r="C727">
         <v>1</v>
@@ -11118,7 +11118,7 @@
         <v>729</v>
       </c>
       <c r="B728">
-        <v>219.2760816869911</v>
+        <v>91.26883367283708</v>
       </c>
       <c r="C728">
         <v>3</v>
@@ -11129,7 +11129,7 @@
         <v>730</v>
       </c>
       <c r="B729">
-        <v>219.7384809267598</v>
+        <v>93.62157870918435</v>
       </c>
       <c r="C729">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>731</v>
       </c>
       <c r="B730">
-        <v>267.1516423307182</v>
+        <v>181.4662503056698</v>
       </c>
       <c r="C730">
         <v>1</v>
@@ -11151,7 +11151,7 @@
         <v>732</v>
       </c>
       <c r="B731">
-        <v>234.4376249666422</v>
+        <v>119.9708297879114</v>
       </c>
       <c r="C731">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>733</v>
       </c>
       <c r="B732">
-        <v>237.6972864800942</v>
+        <v>131.5294643796591</v>
       </c>
       <c r="C732">
         <v>3</v>
@@ -11173,7 +11173,7 @@
         <v>734</v>
       </c>
       <c r="B733">
-        <v>221.0090495884727</v>
+        <v>93.1933474020544</v>
       </c>
       <c r="C733">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>735</v>
       </c>
       <c r="B734">
-        <v>222.1936092690337</v>
+        <v>96.84007434941384</v>
       </c>
       <c r="C734">
         <v>3</v>
@@ -11195,7 +11195,7 @@
         <v>736</v>
       </c>
       <c r="B735">
-        <v>237.7162173685254</v>
+        <v>124.0846485267215</v>
       </c>
       <c r="C735">
         <v>2</v>
@@ -11206,7 +11206,7 @@
         <v>737</v>
       </c>
       <c r="B736">
-        <v>223.758798709682</v>
+        <v>97.01546268507923</v>
       </c>
       <c r="C736">
         <v>3</v>
@@ -11217,7 +11217,7 @@
         <v>738</v>
       </c>
       <c r="B737">
-        <v>257.6237566685185</v>
+        <v>157.0031846810758</v>
       </c>
       <c r="C737">
         <v>1</v>
@@ -11228,7 +11228,7 @@
         <v>739</v>
       </c>
       <c r="B738">
-        <v>250.4495957273639</v>
+        <v>145.3444185374863</v>
       </c>
       <c r="C738">
         <v>2</v>
@@ -11239,7 +11239,7 @@
         <v>740</v>
       </c>
       <c r="B739">
-        <v>236.2477513120495</v>
+        <v>120.4200979903272</v>
       </c>
       <c r="C739">
         <v>2</v>
@@ -11250,7 +11250,7 @@
         <v>741</v>
       </c>
       <c r="B740">
-        <v>234.0299126180241</v>
+        <v>116.2497311824849</v>
       </c>
       <c r="C740">
         <v>6</v>
@@ -11261,7 +11261,7 @@
         <v>742</v>
       </c>
       <c r="B741">
-        <v>230.893915034589</v>
+        <v>109.1787525116494</v>
       </c>
       <c r="C741">
         <v>4</v>
@@ -11272,7 +11272,7 @@
         <v>743</v>
       </c>
       <c r="B742">
-        <v>226.4177554875059</v>
+        <v>100.2845950283492</v>
       </c>
       <c r="C742">
         <v>3</v>
@@ -11283,7 +11283,7 @@
         <v>744</v>
       </c>
       <c r="B743">
-        <v>228.475381605984</v>
+        <v>107.7821877677383</v>
       </c>
       <c r="C743">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>745</v>
       </c>
       <c r="B744">
-        <v>230.2737501323153</v>
+        <v>106.9298835686264</v>
       </c>
       <c r="C744">
         <v>4</v>
@@ -11305,7 +11305,7 @@
         <v>746</v>
       </c>
       <c r="B745">
-        <v>272.6554602424092</v>
+        <v>185.3995685000372</v>
       </c>
       <c r="C745">
         <v>1</v>
@@ -11316,7 +11316,7 @@
         <v>747</v>
       </c>
       <c r="B746">
-        <v>236.8902699563661</v>
+        <v>123.4058345460214</v>
       </c>
       <c r="C746">
         <v>2</v>
@@ -11327,7 +11327,7 @@
         <v>748</v>
       </c>
       <c r="B747">
-        <v>243.2611765161058</v>
+        <v>135.7939615741437</v>
       </c>
       <c r="C747">
         <v>3</v>
@@ -11338,7 +11338,7 @@
         <v>749</v>
       </c>
       <c r="B748">
-        <v>261.725046566048</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="C748">
         <v>3</v>
@@ -11349,7 +11349,7 @@
         <v>750</v>
       </c>
       <c r="B749">
-        <v>242.0433845408711</v>
+        <v>127.283148923964</v>
       </c>
       <c r="C749">
         <v>3</v>
@@ -11360,7 +11360,7 @@
         <v>751</v>
       </c>
       <c r="B750">
-        <v>241.0186714758838</v>
+        <v>130.4837154590564</v>
       </c>
       <c r="C750">
         <v>5</v>
@@ -11371,7 +11371,7 @@
         <v>752</v>
       </c>
       <c r="B751">
-        <v>255.3781509839869</v>
+        <v>156.3393744390708</v>
       </c>
       <c r="C751">
         <v>3</v>
@@ -11382,7 +11382,7 @@
         <v>753</v>
       </c>
       <c r="B752">
-        <v>245.120378589786</v>
+        <v>131.8938967503804</v>
       </c>
       <c r="C752">
         <v>3</v>
@@ -11393,7 +11393,7 @@
         <v>754</v>
       </c>
       <c r="B753">
-        <v>256.2537804599183</v>
+        <v>150.0733154161659</v>
       </c>
       <c r="C753">
         <v>3</v>
@@ -11404,7 +11404,7 @@
         <v>755</v>
       </c>
       <c r="B754">
-        <v>240.6595105122588</v>
+        <v>122.8861261493746</v>
       </c>
       <c r="C754">
         <v>4</v>
@@ -11415,7 +11415,7 @@
         <v>756</v>
       </c>
       <c r="B755">
-        <v>229.7868577617093</v>
+        <v>103.5857133006285</v>
       </c>
       <c r="C755">
         <v>4</v>
@@ -11426,7 +11426,7 @@
         <v>757</v>
       </c>
       <c r="B756">
-        <v>232.6413548791358</v>
+        <v>110.5712440013225</v>
       </c>
       <c r="C756">
         <v>2</v>
@@ -11437,7 +11437,7 @@
         <v>758</v>
       </c>
       <c r="B757">
-        <v>233.7733945512192</v>
+        <v>113.1459234793724</v>
       </c>
       <c r="C757">
         <v>3</v>
@@ -11448,7 +11448,7 @@
         <v>759</v>
       </c>
       <c r="B758">
-        <v>235.0531854708632</v>
+        <v>115.974135047432</v>
       </c>
       <c r="C758">
         <v>4</v>
@@ -11459,7 +11459,7 @@
         <v>760</v>
       </c>
       <c r="B759">
-        <v>230.1760196023904</v>
+        <v>102.1224754889931</v>
       </c>
       <c r="C759">
         <v>3</v>
@@ -11470,7 +11470,7 @@
         <v>761</v>
       </c>
       <c r="B760">
-        <v>270.3035330882673</v>
+        <v>178.1010948871455</v>
       </c>
       <c r="C760">
         <v>1</v>
@@ -11481,7 +11481,7 @@
         <v>762</v>
       </c>
       <c r="B761">
-        <v>275.138147118861</v>
+        <v>185.5505322007997</v>
       </c>
       <c r="C761">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>763</v>
       </c>
       <c r="B762">
-        <v>254.5780823244609</v>
+        <v>145.6639969244288</v>
       </c>
       <c r="C762">
         <v>4</v>
@@ -11503,7 +11503,7 @@
         <v>764</v>
       </c>
       <c r="B763">
-        <v>235.0914715594762</v>
+        <v>109.4166349327194</v>
       </c>
       <c r="C763">
         <v>3</v>
@@ -11514,7 +11514,7 @@
         <v>765</v>
       </c>
       <c r="B764">
-        <v>233.5658365429328</v>
+        <v>106.5129100156408</v>
       </c>
       <c r="C764">
         <v>4</v>
@@ -11525,7 +11525,7 @@
         <v>766</v>
       </c>
       <c r="B765">
-        <v>253.8365615903272</v>
+        <v>149.2146105446782</v>
       </c>
       <c r="C765">
         <v>3</v>
@@ -11536,7 +11536,7 @@
         <v>767</v>
       </c>
       <c r="B766">
-        <v>269.7869529832753</v>
+        <v>168.6683135624472</v>
       </c>
       <c r="C766">
         <v>1</v>
@@ -11547,7 +11547,7 @@
         <v>768</v>
       </c>
       <c r="B767">
-        <v>233.0193125043502</v>
+        <v>105.2330746486104</v>
       </c>
       <c r="C767">
         <v>2</v>
@@ -11558,7 +11558,7 @@
         <v>769</v>
       </c>
       <c r="B768">
-        <v>233.2595121318743</v>
+        <v>106.0660171779821</v>
       </c>
       <c r="C768">
         <v>5</v>
@@ -11569,7 +11569,7 @@
         <v>770</v>
       </c>
       <c r="B769">
-        <v>235.7647132206175</v>
+        <v>112.3610252712212</v>
       </c>
       <c r="C769">
         <v>2</v>
@@ -11580,7 +11580,7 @@
         <v>771</v>
       </c>
       <c r="B770">
-        <v>242.4417455802527</v>
+        <v>126.7517258265149</v>
       </c>
       <c r="C770">
         <v>5</v>
@@ -11591,7 +11591,7 @@
         <v>772</v>
       </c>
       <c r="B771">
-        <v>252.38462710712</v>
+        <v>145.691454794027</v>
       </c>
       <c r="C771">
         <v>3</v>
@@ -11602,7 +11602,7 @@
         <v>773</v>
       </c>
       <c r="B772">
-        <v>241.8201811263899</v>
+        <v>120.3536455617361</v>
       </c>
       <c r="C772">
         <v>3</v>
@@ -11613,7 +11613,7 @@
         <v>774</v>
       </c>
       <c r="B773">
-        <v>244.826469157238</v>
+        <v>130.4300578854429</v>
       </c>
       <c r="C773">
         <v>3</v>
@@ -11624,7 +11624,7 @@
         <v>775</v>
       </c>
       <c r="B774">
-        <v>245.7824241071766</v>
+        <v>126.7793358556512</v>
       </c>
       <c r="C774">
         <v>3</v>
@@ -11635,7 +11635,7 @@
         <v>776</v>
       </c>
       <c r="B775">
-        <v>242.0516473812975</v>
+        <v>123.664869708418</v>
       </c>
       <c r="C775">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>777</v>
       </c>
       <c r="B776">
-        <v>260.3247971285102</v>
+        <v>157.8131806916013</v>
       </c>
       <c r="C776">
         <v>3</v>
@@ -11657,7 +11657,7 @@
         <v>778</v>
       </c>
       <c r="B777">
-        <v>242.8538655241048</v>
+        <v>123.0040649734796</v>
       </c>
       <c r="C777">
         <v>4</v>
@@ -11668,7 +11668,7 @@
         <v>779</v>
       </c>
       <c r="B778">
-        <v>256.2596339652424</v>
+        <v>142.762039772483</v>
       </c>
       <c r="C778">
         <v>4</v>
@@ -11679,7 +11679,7 @@
         <v>780</v>
       </c>
       <c r="B779">
-        <v>241.677471022849</v>
+        <v>116.3786922078092</v>
       </c>
       <c r="C779">
         <v>4</v>
@@ -11690,7 +11690,7 @@
         <v>781</v>
       </c>
       <c r="B780">
-        <v>238</v>
+        <v>110.0727032465361</v>
       </c>
       <c r="C780">
         <v>3</v>
@@ -11701,7 +11701,7 @@
         <v>782</v>
       </c>
       <c r="B781">
-        <v>253.6651335915127</v>
+        <v>137.4117898871854</v>
       </c>
       <c r="C781">
         <v>5</v>
@@ -11712,7 +11712,7 @@
         <v>783</v>
       </c>
       <c r="B782">
-        <v>245.246814454337</v>
+        <v>122.155638429014</v>
       </c>
       <c r="C782">
         <v>2</v>
@@ -11723,7 +11723,7 @@
         <v>784</v>
       </c>
       <c r="B783">
-        <v>239.409690697766</v>
+        <v>111.4495401515861</v>
       </c>
       <c r="C783">
         <v>3</v>
@@ -11734,7 +11734,7 @@
         <v>785</v>
       </c>
       <c r="B784">
-        <v>256.8209493012593</v>
+        <v>148.0709289496085</v>
       </c>
       <c r="C784">
         <v>4</v>
@@ -11745,7 +11745,7 @@
         <v>786</v>
       </c>
       <c r="B785">
-        <v>247.8790027412568</v>
+        <v>126.1269202034205</v>
       </c>
       <c r="C785">
         <v>3</v>
@@ -11756,7 +11756,7 @@
         <v>787</v>
       </c>
       <c r="B786">
-        <v>241.2985702402731</v>
+        <v>115.6935607542615</v>
       </c>
       <c r="C786">
         <v>3</v>
@@ -11767,7 +11767,7 @@
         <v>788</v>
       </c>
       <c r="B787">
-        <v>241.9938015735114</v>
+        <v>117.3413822996815</v>
       </c>
       <c r="C787">
         <v>1</v>
@@ -11778,7 +11778,7 @@
         <v>789</v>
       </c>
       <c r="B788">
-        <v>246.2701768383659</v>
+        <v>120.5031119930104</v>
       </c>
       <c r="C788">
         <v>3</v>
@@ -11789,7 +11789,7 @@
         <v>790</v>
       </c>
       <c r="B789">
-        <v>244.9693858423946</v>
+        <v>118.1270502467576</v>
       </c>
       <c r="C789">
         <v>3</v>
@@ -11800,7 +11800,7 @@
         <v>791</v>
       </c>
       <c r="B790">
-        <v>243.7416665242117</v>
+        <v>115.974135047432</v>
       </c>
       <c r="C790">
         <v>3</v>
@@ -11811,7 +11811,7 @@
         <v>792</v>
       </c>
       <c r="B791">
-        <v>265.6332057556058</v>
+        <v>153.8083222715858</v>
       </c>
       <c r="C791">
         <v>1</v>
@@ -11822,7 +11822,7 @@
         <v>793</v>
       </c>
       <c r="B792">
-        <v>259.0463279029448</v>
+        <v>142.6359001093343</v>
       </c>
       <c r="C792">
         <v>2</v>
@@ -11833,7 +11833,7 @@
         <v>794</v>
       </c>
       <c r="B793">
-        <v>244.0081965836394</v>
+        <v>116.1550687658528</v>
       </c>
       <c r="C793">
         <v>4</v>
@@ -11844,7 +11844,7 @@
         <v>795</v>
       </c>
       <c r="B794">
-        <v>261.1225765804252</v>
+        <v>151.2117720285031</v>
       </c>
       <c r="C794">
         <v>3</v>
@@ -11855,7 +11855,7 @@
         <v>796</v>
       </c>
       <c r="B795">
-        <v>248.4069242191127</v>
+        <v>125.3554944946571</v>
       </c>
       <c r="C795">
         <v>4</v>
@@ -11866,7 +11866,7 @@
         <v>797</v>
       </c>
       <c r="B796">
-        <v>259.9884612824192</v>
+        <v>148.2228052628879</v>
       </c>
       <c r="C796">
         <v>3</v>
@@ -11877,7 +11877,7 @@
         <v>798</v>
       </c>
       <c r="B797">
-        <v>246.3432564532669</v>
+        <v>118.3427226321923</v>
       </c>
       <c r="C797">
         <v>3</v>
@@ -11888,7 +11888,7 @@
         <v>799</v>
       </c>
       <c r="B798">
-        <v>247.7034517321065</v>
+        <v>122.5275479229059</v>
       </c>
       <c r="C798">
         <v>4</v>
@@ -11899,7 +11899,7 @@
         <v>800</v>
       </c>
       <c r="B799">
-        <v>250.6391828904651</v>
+        <v>128.949602558519</v>
       </c>
       <c r="C799">
         <v>3</v>
@@ -11910,7 +11910,7 @@
         <v>801</v>
       </c>
       <c r="B800">
-        <v>258.0697580112788</v>
+        <v>143.6941195734885</v>
       </c>
       <c r="C800">
         <v>6</v>
@@ -11921,7 +11921,7 @@
         <v>802</v>
       </c>
       <c r="B801">
-        <v>256.1893830743187</v>
+        <v>135.1184665395519</v>
       </c>
       <c r="C801">
         <v>3</v>
@@ -11932,7 +11932,7 @@
         <v>803</v>
       </c>
       <c r="B802">
-        <v>250.8884214147795</v>
+        <v>125.5428213797985</v>
       </c>
       <c r="C802">
         <v>5</v>
@@ -11943,7 +11943,7 @@
         <v>804</v>
       </c>
       <c r="B803">
-        <v>260.5839595984373</v>
+        <v>142.0422472365176</v>
       </c>
       <c r="C803">
         <v>3</v>
@@ -11954,7 +11954,7 @@
         <v>805</v>
       </c>
       <c r="B804">
-        <v>249.0642487391557</v>
+        <v>121.4948558581803</v>
       </c>
       <c r="C804">
         <v>3</v>
@@ -11965,7 +11965,7 @@
         <v>806</v>
       </c>
       <c r="B805">
-        <v>248.3404920668395</v>
+        <v>121.1981848048889</v>
       </c>
       <c r="C805">
         <v>4</v>
@@ -11976,7 +11976,7 @@
         <v>807</v>
       </c>
       <c r="B806">
-        <v>254.3717751638338</v>
+        <v>130.1729618622854</v>
       </c>
       <c r="C806">
         <v>2</v>
@@ -11987,7 +11987,7 @@
         <v>808</v>
       </c>
       <c r="B807">
-        <v>265.452443951831</v>
+        <v>154.4571137889091</v>
       </c>
       <c r="C807">
         <v>1</v>
@@ -11998,7 +11998,7 @@
         <v>809</v>
       </c>
       <c r="B808">
-        <v>253.8424708357528</v>
+        <v>131.1030129325791</v>
       </c>
       <c r="C808">
         <v>4</v>
@@ -12009,7 +12009,7 @@
         <v>810</v>
       </c>
       <c r="B809">
-        <v>256.6398254363496</v>
+        <v>136.850283156448</v>
       </c>
       <c r="C809">
         <v>4</v>
@@ -12020,7 +12020,7 @@
         <v>811</v>
       </c>
       <c r="B810">
-        <v>263.1045419600354</v>
+        <v>149.2648652563623</v>
       </c>
       <c r="C810">
         <v>1</v>
@@ -12031,7 +12031,7 @@
         <v>812</v>
       </c>
       <c r="B811">
-        <v>259.2797716753083</v>
+        <v>141.0319112825179</v>
       </c>
       <c r="C811">
         <v>4</v>
@@ -12042,7 +12042,7 @@
         <v>813</v>
       </c>
       <c r="B812">
-        <v>269.4531499166413</v>
+        <v>159.7904878270293</v>
       </c>
       <c r="C812">
         <v>1</v>
@@ -12053,7 +12053,7 @@
         <v>814</v>
       </c>
       <c r="B813">
-        <v>262.6404386228442</v>
+        <v>142.3938200906205</v>
       </c>
       <c r="C813">
         <v>2</v>
@@ -12064,7 +12064,7 @@
         <v>815</v>
       </c>
       <c r="B814">
-        <v>252.5074256333861</v>
+        <v>124.5792920191795</v>
       </c>
       <c r="C814">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>816</v>
       </c>
       <c r="B815">
-        <v>252</v>
+        <v>124.0644993541666</v>
       </c>
       <c r="C815">
         <v>4</v>
@@ -12086,7 +12086,7 @@
         <v>817</v>
       </c>
       <c r="B816">
-        <v>260.725909721301</v>
+        <v>138.2244551445221</v>
       </c>
       <c r="C816">
         <v>3</v>
@@ -12097,7 +12097,7 @@
         <v>818</v>
       </c>
       <c r="B817">
-        <v>278.3253491868824</v>
+        <v>173.2772345116346</v>
       </c>
       <c r="C817">
         <v>1</v>
@@ -12108,7 +12108,7 @@
         <v>819</v>
       </c>
       <c r="B818">
-        <v>255.131338725763</v>
+        <v>129.0736224021004</v>
       </c>
       <c r="C818">
         <v>3</v>
@@ -12119,7 +12119,7 @@
         <v>820</v>
       </c>
       <c r="B819">
-        <v>256.3220630378899</v>
+        <v>130.4952106400844</v>
       </c>
       <c r="C819">
         <v>1</v>
@@ -12130,7 +12130,7 @@
         <v>821</v>
       </c>
       <c r="B820">
-        <v>257.2566811571664</v>
+        <v>132.5631924781536</v>
       </c>
       <c r="C820">
         <v>3</v>
@@ -12141,7 +12141,7 @@
         <v>822</v>
       </c>
       <c r="B821">
-        <v>262.1945842308723</v>
+        <v>142.6674454807403</v>
       </c>
       <c r="C821">
         <v>3</v>
@@ -12152,7 +12152,7 @@
         <v>823</v>
       </c>
       <c r="B822">
-        <v>273.7608445340568</v>
+        <v>163.0490723677997</v>
       </c>
       <c r="C822">
         <v>4</v>
@@ -12163,7 +12163,7 @@
         <v>824</v>
       </c>
       <c r="B823">
-        <v>286.2167011199731</v>
+        <v>183.8695189529793</v>
       </c>
       <c r="C823">
         <v>1</v>
@@ -12174,7 +12174,7 @@
         <v>825</v>
       </c>
       <c r="B824">
-        <v>270.6917065593256</v>
+        <v>152.3220272974332</v>
       </c>
       <c r="C824">
         <v>1</v>
@@ -12185,7 +12185,7 @@
         <v>826</v>
       </c>
       <c r="B825">
-        <v>267.4415824063266</v>
+        <v>146.7685252361691</v>
       </c>
       <c r="C825">
         <v>1</v>
@@ -12196,7 +12196,7 @@
         <v>827</v>
       </c>
       <c r="B826">
-        <v>257.3285837212804</v>
+        <v>130.1153334545933</v>
       </c>
       <c r="C826">
         <v>4</v>
@@ -12207,7 +12207,7 @@
         <v>828</v>
       </c>
       <c r="B827">
-        <v>261.6295090390226</v>
+        <v>139.4632568098135</v>
       </c>
       <c r="C827">
         <v>3</v>
@@ -12218,7 +12218,7 @@
         <v>829</v>
       </c>
       <c r="B828">
-        <v>269.7647122957337</v>
+        <v>155.0387048449516</v>
       </c>
       <c r="C828">
         <v>4</v>
@@ -12229,7 +12229,7 @@
         <v>830</v>
       </c>
       <c r="B829">
-        <v>282.4694673765644</v>
+        <v>176.2413118425983</v>
       </c>
       <c r="C829">
         <v>6</v>
@@ -12240,7 +12240,7 @@
         <v>831</v>
       </c>
       <c r="B830">
-        <v>285.3909599128886</v>
+        <v>181.0414317221337</v>
       </c>
       <c r="C830">
         <v>3</v>
@@ -12251,7 +12251,7 @@
         <v>832</v>
       </c>
       <c r="B831">
-        <v>260.1095922875587</v>
+        <v>132.5179233160556</v>
       </c>
       <c r="C831">
         <v>4</v>
@@ -12262,7 +12262,7 @@
         <v>833</v>
       </c>
       <c r="B832">
-        <v>260.2037663063315</v>
+        <v>134.1715320028806</v>
       </c>
       <c r="C832">
         <v>2</v>
@@ -12273,7 +12273,7 @@
         <v>834</v>
       </c>
       <c r="B833">
-        <v>270.8800472533922</v>
+        <v>154.3502510525979</v>
       </c>
       <c r="C833">
         <v>5</v>
@@ -12284,7 +12284,7 @@
         <v>835</v>
       </c>
       <c r="B834">
-        <v>291.5887514977215</v>
+        <v>189.5257238477141</v>
       </c>
       <c r="C834">
         <v>1</v>
@@ -12295,7 +12295,7 @@
         <v>836</v>
       </c>
       <c r="B835">
-        <v>264.5184303597766</v>
+        <v>138.6001443000692</v>
       </c>
       <c r="C835">
         <v>2</v>
@@ -12306,7 +12306,7 @@
         <v>837</v>
       </c>
       <c r="B836">
-        <v>261.4306791484121</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="C836">
         <v>1</v>
@@ -12317,7 +12317,7 @@
         <v>838</v>
       </c>
       <c r="B837">
-        <v>282.4623868765539</v>
+        <v>173.8763928772391</v>
       </c>
       <c r="C837">
         <v>3</v>
@@ -12328,7 +12328,7 @@
         <v>839</v>
       </c>
       <c r="B838">
-        <v>263.2299375071156</v>
+        <v>135.8307770720612</v>
       </c>
       <c r="C838">
         <v>3</v>
@@ -12339,7 +12339,7 @@
         <v>840</v>
       </c>
       <c r="B839">
-        <v>271.8841665121381</v>
+        <v>149.0536816049842</v>
       </c>
       <c r="C839">
         <v>3</v>
@@ -12350,7 +12350,7 @@
         <v>841</v>
       </c>
       <c r="B840">
-        <v>267.0131082924582</v>
+        <v>140.6840431605518</v>
       </c>
       <c r="C840">
         <v>1</v>
@@ -12361,7 +12361,7 @@
         <v>842</v>
       </c>
       <c r="B841">
-        <v>265</v>
+        <v>138.6542462386205</v>
       </c>
       <c r="C841">
         <v>3</v>
@@ -12372,7 +12372,7 @@
         <v>843</v>
       </c>
       <c r="B842">
-        <v>267.7106647109898</v>
+        <v>143.2934052913811</v>
       </c>
       <c r="C842">
         <v>4</v>
@@ -12383,7 +12383,7 @@
         <v>844</v>
       </c>
       <c r="B843">
-        <v>269.3120866207085</v>
+        <v>146.5366848267013</v>
       </c>
       <c r="C843">
         <v>3</v>
@@ -12394,7 +12394,7 @@
         <v>845</v>
       </c>
       <c r="B844">
-        <v>278.6054557972618</v>
+        <v>163.9176622576103</v>
       </c>
       <c r="C844">
         <v>1</v>
@@ -12405,7 +12405,7 @@
         <v>846</v>
       </c>
       <c r="B845">
-        <v>274.5632896073326</v>
+        <v>154.7417202954653</v>
       </c>
       <c r="C845">
         <v>1</v>
@@ -12416,7 +12416,7 @@
         <v>847</v>
       </c>
       <c r="B846">
-        <v>276.799566473649</v>
+        <v>158.902485820707</v>
       </c>
       <c r="C846">
         <v>1</v>
@@ -12427,7 +12427,7 @@
         <v>848</v>
       </c>
       <c r="B847">
-        <v>268.1193763979023</v>
+        <v>140.5133445620024</v>
       </c>
       <c r="C847">
         <v>2</v>
@@ -12438,7 +12438,7 @@
         <v>849</v>
       </c>
       <c r="B848">
-        <v>271.4277067655401</v>
+        <v>147.6787053031005</v>
       </c>
       <c r="C848">
         <v>3</v>
@@ -12449,7 +12449,7 @@
         <v>850</v>
       </c>
       <c r="B849">
-        <v>292.9453874018159</v>
+        <v>185.1512894905137</v>
       </c>
       <c r="C849">
         <v>2</v>
@@ -12460,7 +12460,7 @@
         <v>851</v>
       </c>
       <c r="B850">
-        <v>289.3371735536241</v>
+        <v>178.4040358287895</v>
       </c>
       <c r="C850">
         <v>3</v>
@@ -12471,7 +12471,7 @@
         <v>852</v>
       </c>
       <c r="B851">
-        <v>274.5487206307835</v>
+        <v>148.489056835849</v>
       </c>
       <c r="C851">
         <v>2</v>
@@ -12482,7 +12482,7 @@
         <v>853</v>
       </c>
       <c r="B852">
-        <v>271.3613826615718</v>
+        <v>144.1284149638786</v>
       </c>
       <c r="C852">
         <v>3</v>
@@ -12493,7 +12493,7 @@
         <v>854</v>
       </c>
       <c r="B853">
-        <v>276.7254957534632</v>
+        <v>155.0774000297916</v>
       </c>
       <c r="C853">
         <v>4</v>
@@ -12504,7 +12504,7 @@
         <v>855</v>
       </c>
       <c r="B854">
-        <v>301.8774585821207</v>
+        <v>198.0353503796734</v>
       </c>
       <c r="C854">
         <v>2</v>
@@ -12515,7 +12515,7 @@
         <v>856</v>
       </c>
       <c r="B855">
-        <v>272.888255518628</v>
+        <v>146.3283977907228</v>
       </c>
       <c r="C855">
         <v>3</v>
@@ -12526,7 +12526,7 @@
         <v>857</v>
       </c>
       <c r="B856">
-        <v>293.400749828626</v>
+        <v>183.6627343801676</v>
       </c>
       <c r="C856">
         <v>3</v>
@@ -12537,7 +12537,7 @@
         <v>858</v>
       </c>
       <c r="B857">
-        <v>300.2565569642069</v>
+        <v>194.077304185729</v>
       </c>
       <c r="C857">
         <v>4</v>
@@ -12548,7 +12548,7 @@
         <v>859</v>
       </c>
       <c r="B858">
-        <v>275.6374430297887</v>
+        <v>148.296999295333</v>
       </c>
       <c r="C858">
         <v>3</v>
@@ -12559,7 +12559,7 @@
         <v>860</v>
       </c>
       <c r="B859">
-        <v>276.2263564542674</v>
+        <v>151.1191582824626</v>
       </c>
       <c r="C859">
         <v>2</v>
@@ -12570,7 +12570,7 @@
         <v>861</v>
       </c>
       <c r="B860">
-        <v>282.5774230188958</v>
+        <v>162.3884232326923</v>
       </c>
       <c r="C860">
         <v>1</v>
@@ -12581,7 +12581,7 @@
         <v>862</v>
       </c>
       <c r="B861">
-        <v>289.6653241242382</v>
+        <v>175.025712396779</v>
       </c>
       <c r="C861">
         <v>3</v>
@@ -12592,7 +12592,7 @@
         <v>863</v>
       </c>
       <c r="B862">
-        <v>298.0771712157776</v>
+        <v>189.1295852054882</v>
       </c>
       <c r="C862">
         <v>1</v>
@@ -12603,7 +12603,7 @@
         <v>864</v>
       </c>
       <c r="B863">
-        <v>276.0652096878562</v>
+        <v>148.3374531263093</v>
       </c>
       <c r="C863">
         <v>2</v>
@@ -12614,7 +12614,7 @@
         <v>865</v>
       </c>
       <c r="B864">
-        <v>277.6256472302226</v>
+        <v>151.8551941818257</v>
       </c>
       <c r="C864">
         <v>1</v>
@@ -12625,7 +12625,7 @@
         <v>866</v>
       </c>
       <c r="B865">
-        <v>292.2190958852621</v>
+        <v>178.6169084941289</v>
       </c>
       <c r="C865">
         <v>3</v>
@@ -12636,7 +12636,7 @@
         <v>867</v>
       </c>
       <c r="B866">
-        <v>277.7210831031738</v>
+        <v>150.9205088780183</v>
       </c>
       <c r="C866">
         <v>3</v>
@@ -12647,7 +12647,7 @@
         <v>868</v>
       </c>
       <c r="B867">
-        <v>279.8660393831306</v>
+        <v>152.0690632574555</v>
       </c>
       <c r="C867">
         <v>4</v>
@@ -12658,7 +12658,7 @@
         <v>869</v>
       </c>
       <c r="B868">
-        <v>279.0645086713823</v>
+        <v>151.0132444522665</v>
       </c>
       <c r="C868">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         <v>870</v>
       </c>
       <c r="B869">
-        <v>282.4482253440443</v>
+        <v>158.4455742518547</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -12680,7 +12680,7 @@
         <v>871</v>
       </c>
       <c r="B870">
-        <v>295.6771888394504</v>
+        <v>180.6239186818844</v>
       </c>
       <c r="C870">
         <v>2</v>
@@ -12691,7 +12691,7 @@
         <v>872</v>
       </c>
       <c r="B871">
-        <v>285.2595309538316</v>
+        <v>161.0124218810462</v>
       </c>
       <c r="C871">
         <v>2</v>
@@ -12702,7 +12702,7 @@
         <v>873</v>
       </c>
       <c r="B872">
-        <v>290.3187902978379</v>
+        <v>170.4259369931702</v>
       </c>
       <c r="C872">
         <v>1</v>
@@ -12713,7 +12713,7 @@
         <v>874</v>
       </c>
       <c r="B873">
-        <v>285.5398396021122</v>
+        <v>158.6852230045381</v>
       </c>
       <c r="C873">
         <v>3</v>
@@ -12724,7 +12724,7 @@
         <v>875</v>
       </c>
       <c r="B874">
-        <v>284.3448610402516</v>
+        <v>157.0350279396288</v>
       </c>
       <c r="C874">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>876</v>
       </c>
       <c r="B875">
-        <v>284.7753500568475</v>
+        <v>157.9905060438759</v>
       </c>
       <c r="C875">
         <v>4</v>
@@ -12746,7 +12746,7 @@
         <v>877</v>
       </c>
       <c r="B876">
-        <v>306.7767918210242</v>
+        <v>196.8146336022807</v>
       </c>
       <c r="C876">
         <v>1</v>
@@ -12757,7 +12757,7 @@
         <v>878</v>
       </c>
       <c r="B877">
-        <v>317.0757007403752</v>
+        <v>212.9812198293549</v>
       </c>
       <c r="C877">
         <v>1</v>
@@ -12768,7 +12768,7 @@
         <v>879</v>
       </c>
       <c r="B878">
-        <v>286.698447850699</v>
+        <v>158.8080602488425</v>
       </c>
       <c r="C878">
         <v>3</v>
@@ -12779,7 +12779,7 @@
         <v>880</v>
       </c>
       <c r="B879">
-        <v>288.0138885540071</v>
+        <v>162.505384526175</v>
       </c>
       <c r="C879">
         <v>3</v>
@@ -12790,7 +12790,7 @@
         <v>881</v>
       </c>
       <c r="B880">
-        <v>291.8218634715363</v>
+        <v>169.729196074217</v>
       </c>
       <c r="C880">
         <v>4</v>
@@ -12801,7 +12801,7 @@
         <v>882</v>
       </c>
       <c r="B881">
-        <v>290.0568909714092</v>
+        <v>163.4778272427181</v>
       </c>
       <c r="C881">
         <v>3</v>
@@ -12812,7 +12812,7 @@
         <v>883</v>
       </c>
       <c r="B882">
-        <v>288.1752938750996</v>
+        <v>161.8054387219416</v>
       </c>
       <c r="C882">
         <v>3</v>
@@ -12823,7 +12823,7 @@
         <v>884</v>
       </c>
       <c r="B883">
-        <v>295.6518222504303</v>
+        <v>175.8010238878033</v>
       </c>
       <c r="C883">
         <v>3</v>
@@ -12834,7 +12834,7 @@
         <v>885</v>
       </c>
       <c r="B884">
-        <v>308.2920693109052</v>
+        <v>196.4586470481765</v>
       </c>
       <c r="C884">
         <v>2</v>
@@ -12845,7 +12845,7 @@
         <v>886</v>
       </c>
       <c r="B885">
-        <v>294.7626163542453</v>
+        <v>169.8146047900474</v>
       </c>
       <c r="C885">
         <v>2</v>
@@ -12856,7 +12856,7 @@
         <v>887</v>
       </c>
       <c r="B886">
-        <v>299.8683044271268</v>
+        <v>181.5957047950199</v>
       </c>
       <c r="C886">
         <v>3</v>
@@ -12867,7 +12867,7 @@
         <v>888</v>
       </c>
       <c r="B887">
-        <v>306.8061277093403</v>
+        <v>193.3132173442882</v>
       </c>
       <c r="C887">
         <v>1</v>
@@ -12878,7 +12878,7 @@
         <v>889</v>
       </c>
       <c r="B888">
-        <v>290.4410439314664</v>
+        <v>163.2298992219256</v>
       </c>
       <c r="C888">
         <v>3</v>
@@ -12889,7 +12889,7 @@
         <v>890</v>
       </c>
       <c r="B889">
-        <v>310.8761811396943</v>
+        <v>199.2485884517127</v>
       </c>
       <c r="C889">
         <v>1</v>
@@ -12900,7 +12900,7 @@
         <v>891</v>
       </c>
       <c r="B890">
-        <v>313.4661066207956</v>
+        <v>203.4035397922072</v>
       </c>
       <c r="C890">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>892</v>
       </c>
       <c r="B891">
-        <v>291.171770609721</v>
+        <v>163.6001222493431</v>
       </c>
       <c r="C891">
         <v>3</v>
@@ -12922,7 +12922,7 @@
         <v>893</v>
       </c>
       <c r="B892">
-        <v>298.6134625230417</v>
+        <v>177.792013318934</v>
       </c>
       <c r="C892">
         <v>4</v>
@@ -12933,7 +12933,7 @@
         <v>894</v>
       </c>
       <c r="B893">
-        <v>292.1711826994579</v>
+        <v>164.1097193952875</v>
       </c>
       <c r="C893">
         <v>3</v>
@@ -12944,7 +12944,7 @@
         <v>895</v>
       </c>
       <c r="B894">
-        <v>293.0153579592715</v>
+        <v>165.1484180971771</v>
       </c>
       <c r="C894">
         <v>4</v>
@@ -12955,7 +12955,7 @@
         <v>896</v>
       </c>
       <c r="B895">
-        <v>298.0553639846128</v>
+        <v>171.9912788486672</v>
       </c>
       <c r="C895">
         <v>1</v>
@@ -12966,7 +12966,7 @@
         <v>897</v>
       </c>
       <c r="B896">
-        <v>296.0760037557924</v>
+        <v>168.8697723099075</v>
       </c>
       <c r="C896">
         <v>3</v>
@@ -12977,7 +12977,7 @@
         <v>898</v>
       </c>
       <c r="B897">
-        <v>297.5768808224187</v>
+        <v>173.3666634621547</v>
       </c>
       <c r="C897">
         <v>5</v>
@@ -12988,7 +12988,7 @@
         <v>899</v>
       </c>
       <c r="B898">
-        <v>298.2633064927699</v>
+        <v>171.7236151494604</v>
       </c>
       <c r="C898">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>900</v>
       </c>
       <c r="B899">
-        <v>296.5215000636547</v>
+        <v>169.0118339052032</v>
       </c>
       <c r="C899">
         <v>3</v>
@@ -13010,7 +13010,7 @@
         <v>901</v>
       </c>
       <c r="B900">
-        <v>307.314171492302</v>
+        <v>186.7243958351452</v>
       </c>
       <c r="C900">
         <v>2</v>
@@ -13021,7 +13021,7 @@
         <v>902</v>
       </c>
       <c r="B901">
-        <v>313.4278226322609</v>
+        <v>197.0913493789111</v>
       </c>
       <c r="C901">
         <v>1</v>
@@ -13032,7 +13032,7 @@
         <v>903</v>
       </c>
       <c r="B902">
-        <v>301.9205193424256</v>
+        <v>176.1476653265663</v>
       </c>
       <c r="C902">
         <v>4</v>
@@ -13043,7 +13043,7 @@
         <v>904</v>
       </c>
       <c r="B903">
-        <v>306.9609095634166</v>
+        <v>185.324040534411</v>
       </c>
       <c r="C903">
         <v>3</v>
@@ -13054,7 +13054,7 @@
         <v>905</v>
       </c>
       <c r="B904">
-        <v>303.2655601943617</v>
+        <v>176.1192777636792</v>
       </c>
       <c r="C904">
         <v>3</v>
@@ -13065,7 +13065,7 @@
         <v>906</v>
       </c>
       <c r="B905">
-        <v>303.0330015031366</v>
+        <v>176.4001133786484</v>
       </c>
       <c r="C905">
         <v>3</v>
@@ -13076,7 +13076,7 @@
         <v>907</v>
       </c>
       <c r="B906">
-        <v>308.8834731739463</v>
+        <v>186.3357185297548</v>
       </c>
       <c r="C906">
         <v>1</v>
@@ -13087,7 +13087,7 @@
         <v>908</v>
       </c>
       <c r="B907">
-        <v>304.2778335666271</v>
+        <v>176.8191166135608</v>
       </c>
       <c r="C907">
         <v>3</v>
@@ -13098,7 +13098,7 @@
         <v>909</v>
       </c>
       <c r="B908">
-        <v>308.7345137816632</v>
+        <v>183.6001089324295</v>
       </c>
       <c r="C908">
         <v>3</v>
@@ -13109,7 +13109,7 @@
         <v>910</v>
       </c>
       <c r="B909">
-        <v>310.2208890452092</v>
+        <v>186.3035158015007</v>
       </c>
       <c r="C909">
         <v>2</v>
@@ -13120,7 +13120,7 @@
         <v>911</v>
       </c>
       <c r="B910">
-        <v>310.3353025358217</v>
+        <v>183.1829686406463</v>
       </c>
       <c r="C910">
         <v>2</v>
@@ -13131,7 +13131,7 @@
         <v>912</v>
       </c>
       <c r="B911">
-        <v>330.0818080415823</v>
+        <v>204.9438947614688</v>
       </c>
       <c r="C911">
         <v>1</v>
